--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28F9A1-280B-4ED8-AB4F-7DBD07D16285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA505C-4536-46EE-AE7E-CE732FB7DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA505C-4536-46EE-AE7E-CE732FB7DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39714C80-8E42-459C-BF02-7CB4FD086DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="9">
   <si>
     <t>canopy</t>
   </si>
@@ -69,9 +69,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,9 +113,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5452ECA5-08A6-472E-92B6-3C8E36637D0E}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,328 +972,328 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>43635</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>32.615555559999997</v>
-      </c>
-      <c r="E27">
-        <v>11.39419492</v>
-      </c>
-      <c r="F27">
-        <v>3.7980649720000002</v>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>32.615555555555559</v>
+      </c>
+      <c r="E27" s="4">
+        <v>11.394194915735723</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.7980649719119075</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>42749</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>11.873333329999999</v>
-      </c>
-      <c r="E28">
-        <v>2.8392428569999999</v>
-      </c>
-      <c r="F28">
-        <v>0.94641428599999999</v>
+      <c r="A28" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>32.93333333333333</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10.882793758957307</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.6275979196524357</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>42809</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>12.56666667</v>
-      </c>
-      <c r="E29">
-        <v>4.7427734499999996</v>
-      </c>
-      <c r="F29">
-        <v>1.580924483</v>
+      <c r="A29" s="5">
+        <v>43704</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30.70888888888889</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10.591166654864375</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.530388884954792</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>42872</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>13.823333330000001</v>
-      </c>
-      <c r="E30">
-        <v>4.0023676330000004</v>
-      </c>
-      <c r="F30">
-        <v>1.334122544</v>
+      <c r="A30" s="5">
+        <v>43738</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>28.600000000000005</v>
+      </c>
+      <c r="E30" s="4">
+        <v>11.493058774756172</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.8310195915853904</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>42924</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>10.34222222</v>
-      </c>
-      <c r="E31">
-        <v>2.5862413740000001</v>
-      </c>
-      <c r="F31">
-        <v>0.86208045799999999</v>
+      <c r="A31" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>24.96</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10.449444961336456</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.4831483204454852</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>42982</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>6.9333333330000002</v>
-      </c>
-      <c r="E32">
-        <v>2.0554804789999999</v>
-      </c>
-      <c r="F32">
-        <v>0.68516016000000002</v>
+      <c r="A32" s="5">
+        <v>43795</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>21.955555555555552</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9.6060334049896969</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.2020111349965656</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>42988</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>14.617777780000001</v>
-      </c>
-      <c r="E33">
-        <v>3.7873928289999998</v>
-      </c>
-      <c r="F33">
-        <v>1.262464276</v>
+      <c r="A33" s="5">
+        <v>43826</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7.9257365588316242</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.6419121862772079</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>43012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>75.284444440000001</v>
-      </c>
-      <c r="E34">
-        <v>12.84773045</v>
-      </c>
-      <c r="F34">
-        <v>4.2825768169999998</v>
+      <c r="A34" s="5">
+        <v>43861</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>20.799999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6.9680485072938536</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2.3226828357646179</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>43047</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>52.433333330000004</v>
-      </c>
-      <c r="E35">
-        <v>9.4247758590000004</v>
-      </c>
-      <c r="F35">
-        <v>3.1415919529999998</v>
+      <c r="A35" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23.082222222222224</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8.5422739621510857</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2.847424654050362</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>43080</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>51.624444439999998</v>
-      </c>
-      <c r="E36">
-        <v>3.8324897619999998</v>
-      </c>
-      <c r="F36">
-        <v>1.2774965869999999</v>
+      <c r="A36" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13.751111111111111</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.0926111898849369</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.0308703966283121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>43125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>49.313333329999999</v>
-      </c>
-      <c r="E37">
-        <v>2.7423530039999999</v>
-      </c>
-      <c r="F37">
-        <v>0.91411766800000005</v>
+      <c r="A37" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>14.617777777777778</v>
+      </c>
+      <c r="E37" s="4">
+        <v>7.9361542603735025</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.6453847534578343</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>43146</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>44.662222219999997</v>
-      </c>
-      <c r="E38">
-        <v>1.8282353360000001</v>
-      </c>
-      <c r="F38">
-        <v>0.60941177899999999</v>
+      <c r="A38" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>20.366666666666667</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9.8945287912057687</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.2981762637352561</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>43172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>40.531111109999998</v>
-      </c>
-      <c r="E39">
-        <v>4.2473298799999997</v>
-      </c>
-      <c r="F39">
-        <v>1.4157766270000001</v>
+      <c r="A39" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>19.095555555555553</v>
+      </c>
+      <c r="E39" s="4">
+        <v>7.0189299596005279</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.3396433198668425</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>43203</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>34.608888890000003</v>
-      </c>
-      <c r="E40">
-        <v>5.8434160479999999</v>
-      </c>
-      <c r="F40">
-        <v>1.947805349</v>
+      <c r="A40" s="3">
+        <v>44040</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>15.860000000000001</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5.9983414374308541</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.9994471458102847</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>43229</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>30.708888890000001</v>
-      </c>
-      <c r="E41">
-        <v>5.1336742309999996</v>
-      </c>
-      <c r="F41">
-        <v>1.7112247439999999</v>
+      <c r="A41" s="5">
+        <v>44068</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>17.766666666666666</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7.4939108614928207</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.4979702871642737</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>43264</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>38.653333330000002</v>
-      </c>
-      <c r="E42">
-        <v>5.4445018139999997</v>
-      </c>
-      <c r="F42">
-        <v>1.814833938</v>
+      <c r="A42" s="6">
+        <v>44102</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19.673333333333332</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9.5166748394594176</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.1722249464864727</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43293</v>
+        <v>42749</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -1279,18 +1302,18 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>36.342222219999996</v>
+        <v>11.873333329999999</v>
       </c>
       <c r="E43">
-        <v>6.2721164250000001</v>
+        <v>2.8392428569999999</v>
       </c>
       <c r="F43">
-        <v>2.090705475</v>
+        <v>0.94641428599999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43330</v>
+        <v>42809</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -1299,18 +1322,18 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>33.68444444</v>
+        <v>12.56666667</v>
       </c>
       <c r="E44">
-        <v>6.327557015</v>
+        <v>4.7427734499999996</v>
       </c>
       <c r="F44">
-        <v>2.1091856720000002</v>
+        <v>1.580924483</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43368</v>
+        <v>42872</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -1319,18 +1342,18 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>38.422222220000002</v>
+        <v>13.823333330000001</v>
       </c>
       <c r="E45">
-        <v>9.3072898550000005</v>
+        <v>4.0023676330000004</v>
       </c>
       <c r="F45">
-        <v>3.102429952</v>
+        <v>1.334122544</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43397</v>
+        <v>42924</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -1339,18 +1362,18 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>36.197777780000003</v>
+        <v>10.34222222</v>
       </c>
       <c r="E46">
-        <v>8.4427746890000002</v>
+        <v>2.5862413740000001</v>
       </c>
       <c r="F46">
-        <v>2.8142582300000001</v>
+        <v>0.86208045799999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43432</v>
+        <v>42982</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1359,18 +1382,18 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>36.717777779999999</v>
+        <v>6.9333333330000002</v>
       </c>
       <c r="E47">
-        <v>11.673810189999999</v>
+        <v>2.0554804789999999</v>
       </c>
       <c r="F47">
-        <v>3.8912700650000001</v>
+        <v>0.68516016000000002</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43465</v>
+        <v>42988</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1379,18 +1402,18 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>34.782222220000001</v>
+        <v>14.617777780000001</v>
       </c>
       <c r="E48">
-        <v>9.2736370669999992</v>
+        <v>3.7873928289999998</v>
       </c>
       <c r="F48">
-        <v>3.0912123560000002</v>
+        <v>1.262464276</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43494</v>
+        <v>43012</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1399,18 +1422,18 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>24.29555556</v>
+        <v>75.284444440000001</v>
       </c>
       <c r="E49">
-        <v>5.216404679</v>
+        <v>12.84773045</v>
       </c>
       <c r="F49">
-        <v>1.73880156</v>
+        <v>4.2825768169999998</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43521</v>
+        <v>43047</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -1419,18 +1442,18 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>31.142222220000001</v>
+        <v>52.433333330000004</v>
       </c>
       <c r="E50">
-        <v>7.3857595710000004</v>
+        <v>9.4247758590000004</v>
       </c>
       <c r="F50">
-        <v>2.4619198569999998</v>
+        <v>3.1415919529999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43551</v>
+        <v>43080</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -1439,18 +1462,18 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>28.02222222</v>
+        <v>51.624444439999998</v>
       </c>
       <c r="E51">
-        <v>3.8603166249999998</v>
+        <v>3.8324897619999998</v>
       </c>
       <c r="F51">
-        <v>1.2867722079999999</v>
+        <v>1.2774965869999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43580</v>
+        <v>43125</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -1459,33 +1482,633 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>33.597777780000001</v>
+        <v>49.313333329999999</v>
       </c>
       <c r="E52">
-        <v>5.189879039</v>
+        <v>2.7423530039999999</v>
       </c>
       <c r="F52">
-        <v>1.7299596800000001</v>
+        <v>0.91411766800000005</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>44.662222219999997</v>
+      </c>
+      <c r="E53">
+        <v>1.8282353360000001</v>
+      </c>
+      <c r="F53">
+        <v>0.60941177899999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>40.531111109999998</v>
+      </c>
+      <c r="E54">
+        <v>4.2473298799999997</v>
+      </c>
+      <c r="F54">
+        <v>1.4157766270000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>34.608888890000003</v>
+      </c>
+      <c r="E55">
+        <v>5.8434160479999999</v>
+      </c>
+      <c r="F55">
+        <v>1.947805349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>30.708888890000001</v>
+      </c>
+      <c r="E56">
+        <v>5.1336742309999996</v>
+      </c>
+      <c r="F56">
+        <v>1.7112247439999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>38.653333330000002</v>
+      </c>
+      <c r="E57">
+        <v>5.4445018139999997</v>
+      </c>
+      <c r="F57">
+        <v>1.814833938</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43293</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>36.342222219999996</v>
+      </c>
+      <c r="E58">
+        <v>6.2721164250000001</v>
+      </c>
+      <c r="F58">
+        <v>2.090705475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43330</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>33.68444444</v>
+      </c>
+      <c r="E59">
+        <v>6.327557015</v>
+      </c>
+      <c r="F59">
+        <v>2.1091856720000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43368</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>38.422222220000002</v>
+      </c>
+      <c r="E60">
+        <v>9.3072898550000005</v>
+      </c>
+      <c r="F60">
+        <v>3.102429952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43397</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>36.197777780000003</v>
+      </c>
+      <c r="E61">
+        <v>8.4427746890000002</v>
+      </c>
+      <c r="F61">
+        <v>2.8142582300000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43432</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>36.717777779999999</v>
+      </c>
+      <c r="E62">
+        <v>11.673810189999999</v>
+      </c>
+      <c r="F62">
+        <v>3.8912700650000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>34.782222220000001</v>
+      </c>
+      <c r="E63">
+        <v>9.2736370669999992</v>
+      </c>
+      <c r="F63">
+        <v>3.0912123560000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43494</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>24.29555556</v>
+      </c>
+      <c r="E64">
+        <v>5.216404679</v>
+      </c>
+      <c r="F64">
+        <v>1.73880156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>31.142222220000001</v>
+      </c>
+      <c r="E65">
+        <v>7.3857595710000004</v>
+      </c>
+      <c r="F65">
+        <v>2.4619198569999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>28.02222222</v>
+      </c>
+      <c r="E66">
+        <v>3.8603166249999998</v>
+      </c>
+      <c r="F66">
+        <v>1.2867722079999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>33.597777780000001</v>
+      </c>
+      <c r="E67">
+        <v>5.189879039</v>
+      </c>
+      <c r="F67">
+        <v>1.7299596800000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>43635</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
         <v>41.166666669999998</v>
       </c>
-      <c r="E53">
+      <c r="E68">
         <v>10.09573672</v>
       </c>
-      <c r="F53">
+      <c r="F68">
         <v>3.3652455749999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>38.13333333333334</v>
+      </c>
+      <c r="E69">
+        <v>10.203964915658995</v>
+      </c>
+      <c r="F69" s="7">
+        <v>3.4013216385529983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>43704</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>36.948888888888888</v>
+      </c>
+      <c r="E70">
+        <v>11.182603056136404</v>
+      </c>
+      <c r="F70" s="7">
+        <v>3.7275343520454682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>43738</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>32.297777777777782</v>
+      </c>
+      <c r="E71">
+        <v>11.856240738296608</v>
+      </c>
+      <c r="F71" s="7">
+        <v>3.9520802460988693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>32.904444444444444</v>
+      </c>
+      <c r="E72">
+        <v>11.526911024978826</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3.8423036749929422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>43795</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>29.206666666666667</v>
+      </c>
+      <c r="E73">
+        <v>10.364188342557284</v>
+      </c>
+      <c r="F73" s="7">
+        <v>3.4547294475190946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>43826</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>26.808888888888887</v>
+      </c>
+      <c r="E74">
+        <v>12.949490766478464</v>
+      </c>
+      <c r="F74" s="7">
+        <v>4.3164969221594882</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>43861</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>27.96444444444445</v>
+      </c>
+      <c r="E75">
+        <v>8.5978181986930586</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2.8659393995643527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>31.460000000000004</v>
+      </c>
+      <c r="E76">
+        <v>9.6978605888102898</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3.2326201962700964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>24.09333333333333</v>
+      </c>
+      <c r="E77">
+        <v>9.932034031355311</v>
+      </c>
+      <c r="F77" s="7">
+        <v>3.3106780104517703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>17.593333333333334</v>
+      </c>
+      <c r="E78">
+        <v>9.8859850293230807</v>
+      </c>
+      <c r="F78" s="7">
+        <v>3.2953283431076934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>26.057777777777783</v>
+      </c>
+      <c r="E79">
+        <v>13.455331450560571</v>
+      </c>
+      <c r="F79" s="7">
+        <v>4.4851104835201907</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>29.235555555555557</v>
+      </c>
+      <c r="E80">
+        <v>11.476217921326599</v>
+      </c>
+      <c r="F80" s="7">
+        <v>3.825405973775533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>44040</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>24.96</v>
+      </c>
+      <c r="E81">
+        <v>9.4694984027666464</v>
+      </c>
+      <c r="F81" s="7">
+        <v>3.156499467588882</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>44068</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>26.231111111111108</v>
+      </c>
+      <c r="E82">
+        <v>11.355813978359771</v>
+      </c>
+      <c r="F82" s="7">
+        <v>3.7852713261199238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>44102</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>22.475555555555555</v>
+      </c>
+      <c r="E83">
+        <v>9.0329993788208451</v>
+      </c>
+      <c r="F83" s="7">
+        <v>3.0109997929402819</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39714C80-8E42-459C-BF02-7CB4FD086DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115EFA1B-6F2A-4850-9F04-FE513C95AE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
+    <sheet name="leaf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="10">
   <si>
     <t>canopy</t>
   </si>
@@ -63,15 +64,20 @@
   <si>
     <t>se</t>
   </si>
+  <si>
+    <t>leaf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +88,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,11 +128,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -126,6 +154,63 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5452ECA5-08A6-472E-92B6-3C8E36637D0E}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,4 +2199,3603 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4088051-04AF-4FA6-AF68-8C0F295BD696}">
+  <dimension ref="A1:F179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:F107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42745</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.59073724007561423</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.31610569958772489</v>
+      </c>
+      <c r="F2" s="12">
+        <v>9.9961399205815926E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>42759</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0430731839049419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.8338209509998129</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.57990510260954398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>42776</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4494606916490602</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6859348154117639</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.53313940032767215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>42787</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0704158790170133</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.55075056161909774</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.17416261973332611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>42800</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4788122243226212</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.88613843514847501</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.28022157772865885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>42814</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.75816905211990271</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.72422032330974528</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.22901857494423283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>42828</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.3907642452065894</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.75288533167562544</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.25096177722520846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>42843</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1997479521109014</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.76530627951364194</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.24201109508925672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>42860</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.7624819303903034</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.8368675143251467</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.58086851052394317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>42871</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.046457008649825</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.2741592502787307</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.75805308342624356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>42903</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.3407650394751471</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.88857060100201957</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.28099069610310767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>42905</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.126654064272212</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.64992538332698635</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.20552445204712994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>42921</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.4436141304347827</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.5222248173524786</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.53818774542019565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>42937</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.6401819470699432</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.1398941820439068</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.36046619068333541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>42961</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.3890201638311279</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.76293908740448824</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.24126252321684635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>42976</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.5529300567107749</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.99618990974228772</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.31502290968631902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>42993</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.8595574335594343</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.6005145423389004</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2.4034937343023195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>43026</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.242281033396345</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.434225830338612</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.45354203029162365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>43038</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.12956836798991805</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.10569793366013495</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3.3424621433940413E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>43053</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8.2028085336213863E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.8524284103191969E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2.4831558940023896E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>43069</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14900478149671964</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.1766918598664913</v>
+      </c>
+      <c r="F22" s="12">
+        <v>5.5874872118940724E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>43082</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.15958993747273517</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.2171160166735808</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6.8658112919160991E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>43098</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.19287570888468808</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.11389515099873568</v>
+      </c>
+      <c r="F24" s="12">
+        <v>3.6016809160480612E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>43123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.1115311909262753E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9.2225076902002934E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2.9164130039451466E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>43131</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.2476370510396975</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.1087871780791625</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.98308482434576316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>43147</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.1993738185255198</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.1791429551879245</v>
+      </c>
+      <c r="F27" s="15">
+        <v>5.664997651673187E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>43159</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.8456206679269062E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6.257285910424798E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1.9787275447822696E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>43173</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.21806643262219819</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.16469840006721789</v>
+      </c>
+      <c r="F29" s="15">
+        <v>5.2082207119803742E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>43187</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.29773156899810965</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.35176493918604923</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.11123784088185319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>43203</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.33184523809523803</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.301809944186614</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9.5440684411799481E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>43216</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.50146520146520146</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.76076009392854094</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.24057346497778229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>43236</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.75738095238095227</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.72308900541397203</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.22866082081339759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>43250</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.16438736372264023</v>
+      </c>
+      <c r="F34" s="17">
+        <v>5.4795787907546745E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>43266</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.2592261904761905</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.2124334351748719</v>
+      </c>
+      <c r="F35" s="17">
+        <v>6.7177350632632499E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>43280</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.50714285714285723</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.491314335090067</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.15536723459758001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>43297</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.31624649859943976</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.15390281263669145</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4.8668342623808911E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>43311</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.28843537414965981</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.22704516883731718</v>
+      </c>
+      <c r="F38" s="17">
+        <v>7.179798652634059E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>43326</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.47079365079365076</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.4284683395512629</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.13549358582523982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>43340</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.36394557823129242</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.21497148782152556</v>
+      </c>
+      <c r="F40" s="17">
+        <v>6.7979953351116909E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>43360</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.47714285714285715</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.3951427819031989</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.1249551191789272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>43371</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.30822510822510824</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.27237813302469877</v>
+      </c>
+      <c r="F42" s="17">
+        <v>8.6133528518237593E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>43385</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.24478231292517008</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.17467811375885112</v>
+      </c>
+      <c r="F43" s="17">
+        <v>5.5238069685996566E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>43403</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.44195502645502649</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.57718240957821187</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.18252110396513349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>43419</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.30865476190476199</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.24019875638842667</v>
+      </c>
+      <c r="F45" s="17">
+        <v>8.006625212947556E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>43434</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.35320146520146517</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.63649048651470763</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.20127596464151629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>43447</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.13214285714285715</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.10873949289869168</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3.4386446917157081E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>43465</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.5708994708994708</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.75492096125114005</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.23872696909573188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>43483</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.10952380952380955</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8.619630616794989E-2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.7257665338394181E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>43496</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.17486772486772489</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.18602919280822083</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5.8827596055659286E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>43511</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.40190476190476188</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.31665577063289069</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.10013534694357926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>43521</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.28761904761904755</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.20348686321760828</v>
+      </c>
+      <c r="F52" s="4">
+        <v>6.4348196169078137E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>43538</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.64145658263305338</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.80784797196828495</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.25546395945676387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>43553</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.2200680272108844</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.1016745493082418</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.34838008160535205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>43570</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.91167787114845933</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.71605211397906754</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.22643556035523471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
+        <v>43584</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.0133639455782315</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.1109723046540545</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.35132029000732951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>43602</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.61934391534391531</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.3398602150423875</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.10747323656085633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>43614</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.51978174603174609</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.32316024719784237</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0.1021922430368228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>43634</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0.73848809523809533</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.59656761585631313</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0.18865124444023304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
+        <v>43646</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0.99998412698412709</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.97552642636168319</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0.30848854249874441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
+        <v>43665</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0.47290977443609022</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.29569404272098981</v>
+      </c>
+      <c r="F61" s="12">
+        <v>9.3506666554146037E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>43677</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0.5223253968253968</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.43174148970857579</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0.13652864678732454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
+        <v>43692</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.51057460317460324</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.39807604977819949</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0.1258826999261676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>43704</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.59717857142857134</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.29752886490812097</v>
+      </c>
+      <c r="F64" s="12">
+        <v>9.4086888275420652E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>43724</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.92509285714285705</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.61767355852360961</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0.19532552953959165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>43735</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="20">
+        <v>1.000030303030303</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1.7332215353234226</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.54809277412759982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
+        <v>43753</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.24670634920634926</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.23985201458417393</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7.5847866746591344E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
+        <v>43767</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0.34478571428571431</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.30483437711774058</v>
+      </c>
+      <c r="F68" s="4">
+        <v>9.6397094081077397E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>43783</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0.38928869047619052</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.484358238957317</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.1531675238573221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
+        <v>43796</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0.18807692307692306</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.2121939448625797</v>
+      </c>
+      <c r="F70" s="4">
+        <v>6.7101617146193657E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
+        <v>43812</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0.63779761904761911</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.70930534714698701</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.22430204535208939</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
+        <v>43826</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="20">
+        <v>1.2448367346938778</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1.6827430115481741</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.53213006332232515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
+        <v>43846</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0.65966666666666662</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.58332685667498396</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.18446414874395436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
+        <v>43861</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0.31704761904761902</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.28064030934837675</v>
+      </c>
+      <c r="F74" s="4">
+        <v>8.8746258079511489E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
+        <v>43874</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0.54619047619047623</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.55660787909329956</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.17601486615304435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
+        <v>43889</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0.45317460317460323</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.29404070590973358</v>
+      </c>
+      <c r="F76" s="4">
+        <v>9.2983835547849086E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
+        <v>43902</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0.5100340136054422</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.51247758133751886</v>
+      </c>
+      <c r="F77" s="17">
+        <v>0.16205964068007594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
+        <v>43921</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0.44022222222222218</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.20951034931734702</v>
+      </c>
+      <c r="F78" s="21">
+        <v>6.6252989722031988E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
+        <v>43937</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.96023809523809511</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1.0039247100633029</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0.31746886831241999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>43951</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.005374149659864</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.70060399969402642</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0.22155043768570337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
+        <v>43965</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.3475434618291762</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1.440063759413915</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0.45538814556127144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>43980</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.9376190476190478</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.56166984098673878</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0.17761559905426899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
+        <v>43997</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.6494957983193278</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.60989690701743149</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0.19286633640670148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>44011</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.66642857142857148</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.57550799390779428</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.18199160723829375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="18">
+        <v>44027</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2.8441071428571427</v>
+      </c>
+      <c r="E85" s="4">
+        <v>6.8376957280063051</v>
+      </c>
+      <c r="F85" s="17">
+        <v>2.16226924477031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>44040</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.70908424908424916</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.56163751611689883</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0.17760537703289273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="18">
+        <v>44060</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.7248941798941799</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1.2121939389246403</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0.38332938128529026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="18">
+        <v>44069</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1.5173544973544977</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1.7039612199989884</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0.53883984997960577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>44088</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.42501253132832079</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.20843907698022454</v>
+      </c>
+      <c r="F89" s="17">
+        <v>6.5914223664068114E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>44104</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.70449404761904755</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1.2024641981142719</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0.38025256708490457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
+        <v>42745</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="23">
+        <v>0.49810964083175796</v>
+      </c>
+      <c r="E91" s="23">
+        <v>0.32207566959534123</v>
+      </c>
+      <c r="F91" s="23">
+        <v>0.10184926948451196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="22">
+        <v>42759</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="23">
+        <v>0.37233324331623013</v>
+      </c>
+      <c r="E92" s="23">
+        <v>0.26070040409488915</v>
+      </c>
+      <c r="F92" s="23">
+        <v>8.2440706386613702E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="22">
+        <v>42776</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="23">
+        <v>0.83981985989102625</v>
+      </c>
+      <c r="E93" s="23">
+        <v>0.34791960111661946</v>
+      </c>
+      <c r="F93" s="23">
+        <v>0.11002183821457792</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="22">
+        <v>42787</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="23">
+        <v>0.57498424700693129</v>
+      </c>
+      <c r="E94" s="23">
+        <v>0.45964229678489438</v>
+      </c>
+      <c r="F94" s="23">
+        <v>0.14535165667913555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="22">
+        <v>42800</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1.2488185255198487</v>
+      </c>
+      <c r="E95" s="23">
+        <v>0.89966435029534508</v>
+      </c>
+      <c r="F95" s="23">
+        <v>0.28449884765888689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="22">
+        <v>42814</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="23">
+        <v>0.76289495004050756</v>
+      </c>
+      <c r="E96" s="23">
+        <v>0.37259021277511062</v>
+      </c>
+      <c r="F96" s="23">
+        <v>0.11782337062561153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="22">
+        <v>42828</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="23">
+        <v>1.3063732109100725</v>
+      </c>
+      <c r="E97" s="23">
+        <v>0.91959779336417735</v>
+      </c>
+      <c r="F97" s="23">
+        <v>0.29080235582956754</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="22">
+        <v>42843</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="23">
+        <v>1.5545053560176432</v>
+      </c>
+      <c r="E98" s="23">
+        <v>0.66434264766425699</v>
+      </c>
+      <c r="F98" s="23">
+        <v>0.21008359134057925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="22">
+        <v>42860</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="23">
+        <v>1.9807072167241189</v>
+      </c>
+      <c r="E99" s="23">
+        <v>1.7718435064851468</v>
+      </c>
+      <c r="F99" s="23">
+        <v>0.5603061137872386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="22">
+        <v>42871</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="23">
+        <v>2.4686372228905307</v>
+      </c>
+      <c r="E100" s="23">
+        <v>1.1266049521456856</v>
+      </c>
+      <c r="F100" s="23">
+        <v>0.35626376720053671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="22">
+        <v>42903</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="23">
+        <v>2.4341154231068605</v>
+      </c>
+      <c r="E101" s="23">
+        <v>1.4662163376166328</v>
+      </c>
+      <c r="F101" s="23">
+        <v>0.46365831694189757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="22">
+        <v>42905</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="23">
+        <v>1.62224322621298</v>
+      </c>
+      <c r="E102" s="23">
+        <v>1.081338860698406</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0.34194937222584965</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="22">
+        <v>42921</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="23">
+        <v>1.9934428166351608</v>
+      </c>
+      <c r="E103" s="23">
+        <v>2.1071074887838912</v>
+      </c>
+      <c r="F103" s="23">
+        <v>0.66632589393547925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="22">
+        <v>42937</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="23">
+        <v>1.5562972589792059</v>
+      </c>
+      <c r="E104" s="23">
+        <v>1.2521279710864359</v>
+      </c>
+      <c r="F104" s="23">
+        <v>0.39595763106385945</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="22">
+        <v>42961</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="23">
+        <v>1.1474086326402018</v>
+      </c>
+      <c r="E105" s="23">
+        <v>0.75746611439438138</v>
+      </c>
+      <c r="F105" s="23">
+        <v>0.23953181718838981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="22">
+        <v>42976</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="23">
+        <v>2.0507246376811596</v>
+      </c>
+      <c r="E106" s="23">
+        <v>1.2684023336753762</v>
+      </c>
+      <c r="F106" s="23">
+        <v>0.40110403638870806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
+        <v>42993</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="28">
+        <v>8.4198821305459806</v>
+      </c>
+      <c r="E107" s="28">
+        <v>4.4741664774392609</v>
+      </c>
+      <c r="F107" s="28">
+        <v>1.4148556699480426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="22">
+        <v>43026</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="23">
+        <v>2.860743541272841</v>
+      </c>
+      <c r="E108" s="23">
+        <v>1.2136935740200798</v>
+      </c>
+      <c r="F108" s="23">
+        <v>0.38380360754136156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="22">
+        <v>43038</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="23">
+        <v>0.58010396975425327</v>
+      </c>
+      <c r="E109" s="23">
+        <v>0.8345267953164961</v>
+      </c>
+      <c r="F109" s="23">
+        <v>0.2639005441641265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="22">
+        <v>43053</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="23">
+        <v>0.54381582500675119</v>
+      </c>
+      <c r="E110" s="23">
+        <v>0.75176820910948017</v>
+      </c>
+      <c r="F110" s="23">
+        <v>0.23772998132916998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="22">
+        <v>43069</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="23">
+        <v>0.24797064383409317</v>
+      </c>
+      <c r="E111" s="23">
+        <v>0.40202840217071262</v>
+      </c>
+      <c r="F111" s="23">
+        <v>0.12713254349376332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="22">
+        <v>43082</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="23">
+        <v>0.50312636324546145</v>
+      </c>
+      <c r="E112" s="23">
+        <v>0.96168211448424912</v>
+      </c>
+      <c r="F112" s="23">
+        <v>0.30411058668170304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="22">
+        <v>43098</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="23">
+        <v>0.4409853497164461</v>
+      </c>
+      <c r="E113" s="23">
+        <v>0.59066511650140974</v>
+      </c>
+      <c r="F113" s="23">
+        <v>0.18678471025531609</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="22">
+        <v>43123</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="23">
+        <v>0.28487712665406417</v>
+      </c>
+      <c r="E114" s="23">
+        <v>0.27493452889625464</v>
+      </c>
+      <c r="F114" s="23">
+        <v>8.6941931873754374E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="22">
+        <v>43131</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="23">
+        <v>0.63681474480151234</v>
+      </c>
+      <c r="E115" s="23">
+        <v>0.34354078019927858</v>
+      </c>
+      <c r="F115" s="23">
+        <v>0.10863713345809942</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="22">
+        <v>43147</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="23">
+        <v>0.27085302457466925</v>
+      </c>
+      <c r="E116" s="23">
+        <v>0.18875392688588091</v>
+      </c>
+      <c r="F116" s="23">
+        <v>5.9689232626027683E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="22">
+        <v>43159</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="23">
+        <v>0.47889098928796464</v>
+      </c>
+      <c r="E117" s="23">
+        <v>0.32208247553784802</v>
+      </c>
+      <c r="F117" s="23">
+        <v>0.10185142171250652</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="22">
+        <v>43173</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="23">
+        <v>0.39866324601674313</v>
+      </c>
+      <c r="E118" s="23">
+        <v>0.15716340795109199</v>
+      </c>
+      <c r="F118" s="23">
+        <v>4.9699433395966761E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="22">
+        <v>43187</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="23">
+        <v>0.60423980556305701</v>
+      </c>
+      <c r="E119" s="23">
+        <v>0.33725643851220688</v>
+      </c>
+      <c r="F119" s="23">
+        <v>0.10664985012551025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="22">
+        <v>43203</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="23">
+        <v>0.84761904761904761</v>
+      </c>
+      <c r="E120" s="23">
+        <v>0.67240655443860964</v>
+      </c>
+      <c r="F120" s="23">
+        <v>0.21263362256520082</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="22">
+        <v>43216</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="23">
+        <v>0.76959706959706942</v>
+      </c>
+      <c r="E121" s="23">
+        <v>0.48757699195030579</v>
+      </c>
+      <c r="F121" s="23">
+        <v>0.15418538292565495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="22">
+        <v>43236</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="23">
+        <v>0.69452380952380943</v>
+      </c>
+      <c r="E122" s="23">
+        <v>0.54242307207164997</v>
+      </c>
+      <c r="F122" s="23">
+        <v>0.17152923631720812</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="22">
+        <v>43250</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="23">
+        <v>0.4380196523053666</v>
+      </c>
+      <c r="E123" s="23">
+        <v>0.3296415799752897</v>
+      </c>
+      <c r="F123" s="23">
+        <v>0.1098805266584299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="22">
+        <v>43266</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="23">
+        <v>0.61815476190476182</v>
+      </c>
+      <c r="E124" s="23">
+        <v>0.29864258522100134</v>
+      </c>
+      <c r="F124" s="23">
+        <v>9.4439077561930387E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="22">
+        <v>43280</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="23">
+        <v>0.54319727891156455</v>
+      </c>
+      <c r="E125" s="23">
+        <v>0.39503011454653147</v>
+      </c>
+      <c r="F125" s="23">
+        <v>0.12491949063242523</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="22">
+        <v>43297</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="23">
+        <v>0.5638655462184875</v>
+      </c>
+      <c r="E126" s="23">
+        <v>0.42019514385211548</v>
+      </c>
+      <c r="F126" s="23">
+        <v>0.13287737163147834</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="22">
+        <v>43311</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="23">
+        <v>0.50714285714285712</v>
+      </c>
+      <c r="E127" s="23">
+        <v>0.29449859666868</v>
+      </c>
+      <c r="F127" s="23">
+        <v>9.3128633319630463E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="22">
+        <v>43326</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="23">
+        <v>0.31365079365079368</v>
+      </c>
+      <c r="E128" s="23">
+        <v>0.22663198347427593</v>
+      </c>
+      <c r="F128" s="23">
+        <v>7.1667325842035209E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="22">
+        <v>43340</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="23">
+        <v>0.57278911564625845</v>
+      </c>
+      <c r="E129" s="23">
+        <v>0.31544631637590087</v>
+      </c>
+      <c r="F129" s="23">
+        <v>9.9752883925791805E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="22">
+        <v>43360</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="23">
+        <v>0.54904761904761901</v>
+      </c>
+      <c r="E130" s="23">
+        <v>0.50410159465872084</v>
+      </c>
+      <c r="F130" s="23">
+        <v>0.15941092112445285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="22">
+        <v>43371</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="23">
+        <v>0.52683982683982677</v>
+      </c>
+      <c r="E131" s="23">
+        <v>0.46154869783489583</v>
+      </c>
+      <c r="F131" s="23">
+        <v>0.14595451362430967</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="22">
+        <v>43385</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="23">
+        <v>0.46521428571428569</v>
+      </c>
+      <c r="E132" s="23">
+        <v>0.37748562386033291</v>
+      </c>
+      <c r="F132" s="23">
+        <v>0.11937143553682544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="22">
+        <v>43403</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="23">
+        <v>0.40690211640211643</v>
+      </c>
+      <c r="E133" s="23">
+        <v>0.30443894211345707</v>
+      </c>
+      <c r="F133" s="23">
+        <v>9.6272046553067966E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="22">
+        <v>43419</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="23">
+        <v>0.38044642857142857</v>
+      </c>
+      <c r="E134" s="23">
+        <v>0.26144589893054748</v>
+      </c>
+      <c r="F134" s="23">
+        <v>8.7148632976849161E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="22">
+        <v>43434</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="23">
+        <v>0.46149780219780212</v>
+      </c>
+      <c r="E135" s="23">
+        <v>0.5149618209709339</v>
+      </c>
+      <c r="F135" s="23">
+        <v>0.16284522622960126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="22">
+        <v>43447</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="23">
+        <v>0.28495555555555557</v>
+      </c>
+      <c r="E136" s="23">
+        <v>0.2113541042043319</v>
+      </c>
+      <c r="F136" s="23">
+        <v>6.6836036211025851E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="22">
+        <v>43465</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="23">
+        <v>0.61772486772486768</v>
+      </c>
+      <c r="E137" s="23">
+        <v>0.79918533689230653</v>
+      </c>
+      <c r="F137" s="23">
+        <v>0.25272459371886807</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="22">
+        <v>43483</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="23">
+        <v>0.30714285714285716</v>
+      </c>
+      <c r="E138" s="23">
+        <v>0.243019974639932</v>
+      </c>
+      <c r="F138" s="23">
+        <v>7.6849663677854299E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="22">
+        <v>43496</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="23">
+        <v>0.88280423280423292</v>
+      </c>
+      <c r="E139" s="23">
+        <v>2.1663298243172107</v>
+      </c>
+      <c r="F139" s="23">
+        <v>0.6850536407994805</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="22">
+        <v>43511</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="23">
+        <v>0.57692063492063494</v>
+      </c>
+      <c r="E140" s="23">
+        <v>0.54268792911265318</v>
+      </c>
+      <c r="F140" s="23">
+        <v>0.1716129914675984</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="22">
+        <v>43521</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="23">
+        <v>0.56952380952380954</v>
+      </c>
+      <c r="E141" s="23">
+        <v>0.46626264769864612</v>
+      </c>
+      <c r="F141" s="23">
+        <v>0.1474451954588388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="22">
+        <v>43538</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="23">
+        <v>0.42969187675070031</v>
+      </c>
+      <c r="E142" s="23">
+        <v>0.19675398276036771</v>
+      </c>
+      <c r="F142" s="23">
+        <v>6.2219072423226517E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="22">
+        <v>43553</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="23">
+        <v>0.65491836734693887</v>
+      </c>
+      <c r="E143" s="23">
+        <v>0.53139219989250053</v>
+      </c>
+      <c r="F143" s="23">
+        <v>0.16804096825077841</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="22">
+        <v>43570</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="23">
+        <v>0.84068067226890741</v>
+      </c>
+      <c r="E144" s="23">
+        <v>0.74982571612161408</v>
+      </c>
+      <c r="F144" s="23">
+        <v>0.23711571111111371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="22">
+        <v>43584</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="23">
+        <v>1.0622891156462586</v>
+      </c>
+      <c r="E145" s="23">
+        <v>0.75328722214163457</v>
+      </c>
+      <c r="F145" s="23">
+        <v>0.23821033542687861</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="22">
+        <v>43602</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="23">
+        <v>1.068857142857143</v>
+      </c>
+      <c r="E146" s="23">
+        <v>1.1750150794900249</v>
+      </c>
+      <c r="F146" s="23">
+        <v>0.3715723936232278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="22">
+        <v>43614</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="23">
+        <v>0.65297222222222218</v>
+      </c>
+      <c r="E147" s="23">
+        <v>0.38069869954536356</v>
+      </c>
+      <c r="F147" s="23">
+        <v>0.12038749928274571</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="22">
+        <v>43634</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="23">
+        <v>0.83698809523809525</v>
+      </c>
+      <c r="E148" s="23">
+        <v>0.43879992557549408</v>
+      </c>
+      <c r="F148" s="23">
+        <v>0.13876072019309324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="22">
+        <v>43646</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="23">
+        <v>1.1383452380952381</v>
+      </c>
+      <c r="E149" s="23">
+        <v>0.67409612027408861</v>
+      </c>
+      <c r="F149" s="23">
+        <v>0.21316791019489273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="22">
+        <v>43665</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="23">
+        <v>0.83765524923419665</v>
+      </c>
+      <c r="E150" s="23">
+        <v>0.48319171428675978</v>
+      </c>
+      <c r="F150" s="23">
+        <v>0.15279863636674826</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="22">
+        <v>43677</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="23">
+        <v>0.64637981859410432</v>
+      </c>
+      <c r="E151" s="23">
+        <v>0.50244296566350877</v>
+      </c>
+      <c r="F151" s="23">
+        <v>0.16212579415580805</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="22">
+        <v>43692</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="23">
+        <v>0.51582539682539674</v>
+      </c>
+      <c r="E152" s="23">
+        <v>0.20016656049758946</v>
+      </c>
+      <c r="F152" s="23">
+        <v>6.3298224257426955E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="22">
+        <v>43704</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="23">
+        <v>0.67582142857142857</v>
+      </c>
+      <c r="E153" s="23">
+        <v>0.83420313199651719</v>
+      </c>
+      <c r="F153" s="23">
+        <v>0.26379819283550798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="22">
+        <v>43724</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E154" s="23">
+        <v>0.57862258564960523</v>
+      </c>
+      <c r="F154" s="23">
+        <v>0.18297652762686112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="22">
+        <v>43735</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="23">
+        <v>0.45086580086580086</v>
+      </c>
+      <c r="E155" s="23">
+        <v>0.22780023163838961</v>
+      </c>
+      <c r="F155" s="23">
+        <v>7.2036758349126151E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="22">
+        <v>43753</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="23">
+        <v>0.50502645502645505</v>
+      </c>
+      <c r="E156" s="23">
+        <v>0.33570842622571795</v>
+      </c>
+      <c r="F156" s="23">
+        <v>0.10616032565838723</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="22">
+        <v>43767</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="23">
+        <v>0.49732993197278913</v>
+      </c>
+      <c r="E157" s="23">
+        <v>0.35145238806458645</v>
+      </c>
+      <c r="F157" s="23">
+        <v>0.11113900353894696</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="22">
+        <v>43783</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="23">
+        <v>0.40048809523809525</v>
+      </c>
+      <c r="E158" s="23">
+        <v>0.49926806116494965</v>
+      </c>
+      <c r="F158" s="23">
+        <v>0.15788242362575003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="22">
+        <v>43796</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="23">
+        <v>0.25548351648351653</v>
+      </c>
+      <c r="E159" s="23">
+        <v>0.28737857948174583</v>
+      </c>
+      <c r="F159" s="23">
+        <v>9.0877086190604778E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="22">
+        <v>43812</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="23">
+        <v>0.40626190476190482</v>
+      </c>
+      <c r="E160" s="23">
+        <v>0.51190570151876358</v>
+      </c>
+      <c r="F160" s="23">
+        <v>0.16187879640256084</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="22">
+        <v>43826</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="23">
+        <v>1.225204081632653</v>
+      </c>
+      <c r="E161" s="23">
+        <v>2.0799457563653694</v>
+      </c>
+      <c r="F161" s="23">
+        <v>0.65773659997162304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="22">
+        <v>43846</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="23">
+        <v>1.1072857142857144</v>
+      </c>
+      <c r="E162" s="23">
+        <v>2.0186811718221849</v>
+      </c>
+      <c r="F162" s="23">
+        <v>0.63836303726558208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="22">
+        <v>43861</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="23">
+        <v>0.31380952380952382</v>
+      </c>
+      <c r="E163" s="23">
+        <v>0.28334523414011847</v>
+      </c>
+      <c r="F163" s="23">
+        <v>8.9601630403647534E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="22">
+        <v>43874</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="23">
+        <v>0.5330402930402931</v>
+      </c>
+      <c r="E164" s="23">
+        <v>0.50174159124923368</v>
+      </c>
+      <c r="F164" s="23">
+        <v>0.1586646225184786</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="22">
+        <v>43889</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="23">
+        <v>0.19180952380952382</v>
+      </c>
+      <c r="E165" s="23">
+        <v>0.33548404344445315</v>
+      </c>
+      <c r="F165" s="23">
+        <v>0.10608936959273521</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="24">
+        <v>43902</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="23">
+        <v>0.43534013605442173</v>
+      </c>
+      <c r="E166" s="23">
+        <v>0.45167385591152548</v>
+      </c>
+      <c r="F166" s="23">
+        <v>0.14283181442311285</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="25">
+        <v>43921</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="23">
+        <v>0.85338624338624336</v>
+      </c>
+      <c r="E167" s="23">
+        <v>1.3118531400675328</v>
+      </c>
+      <c r="F167" s="23">
+        <v>0.41484438782572985</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="24">
+        <v>43937</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="23">
+        <v>0.93776785714285715</v>
+      </c>
+      <c r="E168" s="23">
+        <v>0.61951575403915971</v>
+      </c>
+      <c r="F168" s="23">
+        <v>0.19590808291204032</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="25">
+        <v>43951</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="23">
+        <v>1.4112925170068029</v>
+      </c>
+      <c r="E169" s="23">
+        <v>1.4930286975878244</v>
+      </c>
+      <c r="F169" s="23">
+        <v>0.47213712963722682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="26">
+        <v>43965</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="23">
+        <v>1.954047619047619</v>
+      </c>
+      <c r="E170" s="23">
+        <v>1.4077911062800588</v>
+      </c>
+      <c r="F170" s="23">
+        <v>0.44518263655731583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="27">
+        <v>43980</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="23">
+        <v>1.3908888888888891</v>
+      </c>
+      <c r="E171" s="23">
+        <v>1.0556350481266199</v>
+      </c>
+      <c r="F171" s="23">
+        <v>0.3338211129981582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="26">
+        <v>43997</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="23">
+        <v>1.1485154061624652</v>
+      </c>
+      <c r="E172" s="23">
+        <v>1.0191385371954067</v>
+      </c>
+      <c r="F172" s="23">
+        <v>0.32227990287897151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="27">
+        <v>44011</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="23">
+        <v>0.78710884353741495</v>
+      </c>
+      <c r="E173" s="23">
+        <v>0.48114436608840039</v>
+      </c>
+      <c r="F173" s="23">
+        <v>0.15215120801972248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="27">
+        <v>44027</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="23">
+        <v>0.82693452380952392</v>
+      </c>
+      <c r="E174" s="23">
+        <v>0.60770081883954552</v>
+      </c>
+      <c r="F174" s="23">
+        <v>0.1921718723482326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="27">
+        <v>44040</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="23">
+        <v>0.85542124542124554</v>
+      </c>
+      <c r="E175" s="23">
+        <v>0.46612488989079942</v>
+      </c>
+      <c r="F175" s="23">
+        <v>0.14740163261501205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="27">
+        <v>44060</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="23">
+        <v>4.9535595238095249</v>
+      </c>
+      <c r="E176" s="23">
+        <v>8.9582232179507386</v>
+      </c>
+      <c r="F176" s="23">
+        <v>2.8328389156927312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="27">
+        <v>44069</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="23">
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="E177" s="23">
+        <v>1.0555276046507154</v>
+      </c>
+      <c r="F177" s="23">
+        <v>0.33378713638779983</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="27">
+        <v>44088</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="23">
+        <v>0.50832080200501251</v>
+      </c>
+      <c r="E178" s="23">
+        <v>0.37220652175345958</v>
+      </c>
+      <c r="F178" s="23">
+        <v>0.11770203687099411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="27">
+        <v>44104</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="23">
+        <v>0.58821428571428569</v>
+      </c>
+      <c r="E179" s="23">
+        <v>0.52087265913514569</v>
+      </c>
+      <c r="F179" s="23">
+        <v>0.16471439737755703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115EFA1B-6F2A-4850-9F04-FE513C95AE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483FDF-1EEC-4DF6-8862-42CA4BFF196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
     <sheet name="leaf" sheetId="2" r:id="rId2"/>
+    <sheet name="shrimp" sheetId="3" r:id="rId3"/>
+    <sheet name="chlorophyll" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="10">
   <si>
     <t>canopy</t>
   </si>
@@ -141,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -211,6 +213,7 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4088051-04AF-4FA6-AF68-8C0F295BD696}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:F107"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5798,4 +5801,2684 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0DCC2-9B1A-4289-981D-F0A202653F1A}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>42748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7.0320097936666697</v>
+      </c>
+      <c r="D2">
+        <v>5.456109638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>42776</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9.8125321693333305</v>
+      </c>
+      <c r="D3">
+        <v>7.652800214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>42804</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2.48426796577778</v>
+      </c>
+      <c r="D4">
+        <v>1.90811519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4.9575499977777797</v>
+      </c>
+      <c r="D5">
+        <v>3.8148371089999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42867</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6.5529776244444404</v>
+      </c>
+      <c r="D6">
+        <v>5.140687647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9.5821875723333303</v>
+      </c>
+      <c r="D7">
+        <v>7.0206230979999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>42923</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.0327961846666698</v>
+      </c>
+      <c r="D8">
+        <v>4.2230005039999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.5465258052222204</v>
+      </c>
+      <c r="D9">
+        <v>4.216356555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.5537686384444402</v>
+      </c>
+      <c r="D10">
+        <v>5.3723351790000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.1442659524444396</v>
+      </c>
+      <c r="D11">
+        <v>3.3986645229999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43046</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.1172367817777804</v>
+      </c>
+      <c r="D12">
+        <v>4.2721712350000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>43077</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.9642720365555597</v>
+      </c>
+      <c r="D13">
+        <v>5.8804574169999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>43120</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.8947890029999996</v>
+      </c>
+      <c r="D14">
+        <v>4.9281550349999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10.1867032391111</v>
+      </c>
+      <c r="D15">
+        <v>5.4482511980000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>9.29539062522222</v>
+      </c>
+      <c r="D16">
+        <v>5.7241165169999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16.366746351555602</v>
+      </c>
+      <c r="D17">
+        <v>13.47164566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6.4349872451111096</v>
+      </c>
+      <c r="D18">
+        <v>4.5746554899999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>9.5414833957777798</v>
+      </c>
+      <c r="D19">
+        <v>5.3282850269999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12.3995643141111</v>
+      </c>
+      <c r="D20">
+        <v>9.409797588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43319</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>13.2163989855556</v>
+      </c>
+      <c r="D21">
+        <v>9.0341196739999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>6.4354159026666702</v>
+      </c>
+      <c r="D22">
+        <v>5.0712837390000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7.7842645357777798</v>
+      </c>
+      <c r="D23">
+        <v>4.7701134119999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>9.6911480058888895</v>
+      </c>
+      <c r="D24">
+        <v>4.8860938359999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8.5126433821111096</v>
+      </c>
+      <c r="D25">
+        <v>4.0672777550000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>7.1736584236666703</v>
+      </c>
+      <c r="D26">
+        <v>4.2436466910000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43501</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>7.3434439366666702</v>
+      </c>
+      <c r="D27">
+        <v>4.6489553570000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>9.7775925981111094</v>
+      </c>
+      <c r="D28">
+        <v>7.2604282979999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>9.4245089645555495</v>
+      </c>
+      <c r="D29">
+        <v>8.0095111390000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>14.726974657333299</v>
+      </c>
+      <c r="D30">
+        <v>12.317417860000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>10.720853510333299</v>
+      </c>
+      <c r="D31">
+        <v>7.1019401240000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43651</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>8.2635838065555607</v>
+      </c>
+      <c r="D32">
+        <v>5.8455680030000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43683</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>7.0652781032222203</v>
+      </c>
+      <c r="D33">
+        <v>6.3315068490000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43713</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>9.26475562388889</v>
+      </c>
+      <c r="D34">
+        <v>5.6547836870000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>8.9517877991111092</v>
+      </c>
+      <c r="D35">
+        <v>7.3440677020000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7.4796485720000003</v>
+      </c>
+      <c r="D36">
+        <v>5.1522638770000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5.0398999566666696</v>
+      </c>
+      <c r="D37">
+        <v>4.0180063779999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>6.5251551452222198</v>
+      </c>
+      <c r="D38">
+        <v>5.8926324570000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>4.6117092001111102</v>
+      </c>
+      <c r="D39">
+        <v>4.7369710659999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>5.9892099675555599</v>
+      </c>
+      <c r="D40">
+        <v>4.5678473019999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>7.2197832723333297</v>
+      </c>
+      <c r="D41">
+        <v>8.9560851429999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>8.2576367668888899</v>
+      </c>
+      <c r="D42">
+        <v>5.982281607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>9.7816157843333293</v>
+      </c>
+      <c r="D43">
+        <v>7.8970892370000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>7.3659504247777798</v>
+      </c>
+      <c r="D44">
+        <v>7.7615223389999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>8.9776478964444504</v>
+      </c>
+      <c r="D45">
+        <v>6.6374370130000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="29">
+        <v>44078</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>13.3300128887778</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9.4348014490000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>42748</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>4.6966736685555599</v>
+      </c>
+      <c r="D47">
+        <v>4.0249312903708203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>42776</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>7.1028449752222196</v>
+      </c>
+      <c r="D48">
+        <v>4.1882705487110901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42804</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2.92230371022222</v>
+      </c>
+      <c r="D49">
+        <v>2.5976656166111498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>4.7758126213333298</v>
+      </c>
+      <c r="D50">
+        <v>4.5407438504376598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>42867</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>3.78668087211111</v>
+      </c>
+      <c r="D51">
+        <v>2.20597227087696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5.8611035816666703</v>
+      </c>
+      <c r="D52">
+        <v>3.2585568532285998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>42923</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>4.84184440755556</v>
+      </c>
+      <c r="D53">
+        <v>3.20875060837575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4.0951072685555596</v>
+      </c>
+      <c r="D54">
+        <v>3.1336126758174099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>8.1849639331111099</v>
+      </c>
+      <c r="D55">
+        <v>5.9499951232843804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7.0325192467777802</v>
+      </c>
+      <c r="D56">
+        <v>3.8164606586566401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>43046</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>8.9489979434444393</v>
+      </c>
+      <c r="D57">
+        <v>7.5411228913510699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>43077</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.5583307012222196</v>
+      </c>
+      <c r="D58">
+        <v>4.0993752498083698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>7.3665468488888903</v>
+      </c>
+      <c r="D59">
+        <v>1.88356962862484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>6.6955181246666697</v>
+      </c>
+      <c r="D60">
+        <v>5.1874540595778802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>9.3333059424999991</v>
+      </c>
+      <c r="D61">
+        <v>6.8834456367527599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>14.625209078375001</v>
+      </c>
+      <c r="D62">
+        <v>14.2738028634221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>8.4631586212222203</v>
+      </c>
+      <c r="D63">
+        <v>8.7800712054795191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>12.838360992</v>
+      </c>
+      <c r="D64">
+        <v>9.2681786542472295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43292</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>15.935274675444401</v>
+      </c>
+      <c r="D65">
+        <v>13.847324422063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>13.1729378147778</v>
+      </c>
+      <c r="D66">
+        <v>11.0422807562889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43349</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>5.6244333339999999</v>
+      </c>
+      <c r="D67">
+        <v>3.0263210710597299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>5.1970044034444403</v>
+      </c>
+      <c r="D68">
+        <v>4.2287285256960097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>6.1524306467777796</v>
+      </c>
+      <c r="D69">
+        <v>5.8045075913939597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>7.16935788344444</v>
+      </c>
+      <c r="D70">
+        <v>5.7092829794805597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>5.8913242802222197</v>
+      </c>
+      <c r="D71">
+        <v>4.1347276141814797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43501</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>8.3844878724444403</v>
+      </c>
+      <c r="D72">
+        <v>6.7615676184102798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>8.5570245870000008</v>
+      </c>
+      <c r="D73">
+        <v>6.5296832761990498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>8.1475601494444394</v>
+      </c>
+      <c r="D74">
+        <v>7.3291017191915602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>10.1039536228889</v>
+      </c>
+      <c r="D75">
+        <v>9.3074268874582806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>5.1605615248888901</v>
+      </c>
+      <c r="D76">
+        <v>4.9671225062806901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43651</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>8.38599499888889</v>
+      </c>
+      <c r="D77">
+        <v>6.4302750334472503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43683</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>6.2657050465555599</v>
+      </c>
+      <c r="D78">
+        <v>4.9509297810855299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43713</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>5.6767381156666703</v>
+      </c>
+      <c r="D79">
+        <v>2.5513080427824701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>7.2213691431111098</v>
+      </c>
+      <c r="D80">
+        <v>3.8257648491901599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>6.2185301114444398</v>
+      </c>
+      <c r="D81">
+        <v>5.1084859867672803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>5.3013975203333299</v>
+      </c>
+      <c r="D82">
+        <v>4.5539185090820498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>4.7611174396666698</v>
+      </c>
+      <c r="D83">
+        <v>3.30155800639369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3.8129799131111102</v>
+      </c>
+      <c r="D84">
+        <v>3.8754846730677901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>4.1978767477777801</v>
+      </c>
+      <c r="D85">
+        <v>2.5164847522609102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>4.4874836447777797</v>
+      </c>
+      <c r="D86">
+        <v>4.0785792406651398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>4.80463602744444</v>
+      </c>
+      <c r="D87">
+        <v>5.1485386589187296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>12.309388167333299</v>
+      </c>
+      <c r="D88">
+        <v>10.5576630012777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>6.83983238966667</v>
+      </c>
+      <c r="D89">
+        <v>4.5101301663140401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>4.74124791844444</v>
+      </c>
+      <c r="D90">
+        <v>1.6471008990931399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>5.3660555175555604</v>
+      </c>
+      <c r="D91">
+        <v>3.3110714537104098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA04F0F5-94F6-4ECC-910C-1083F193A778}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>42749</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>741.34989849999999</v>
+      </c>
+      <c r="D2">
+        <v>330.222579</v>
+      </c>
+      <c r="E2">
+        <v>134.81280340000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>42777</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>776.30097679999994</v>
+      </c>
+      <c r="D3">
+        <v>300.31336859999999</v>
+      </c>
+      <c r="E3">
+        <v>122.60241929999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>42805</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>540.57319170000005</v>
+      </c>
+      <c r="D4">
+        <v>115.6666034</v>
+      </c>
+      <c r="E4">
+        <v>47.220693089999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42833</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>356.60569659999999</v>
+      </c>
+      <c r="D5">
+        <v>173.4264082</v>
+      </c>
+      <c r="E5">
+        <v>70.801034659999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42869</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>483.11852529999999</v>
+      </c>
+      <c r="D6">
+        <v>181.65435479999999</v>
+      </c>
+      <c r="E6">
+        <v>74.160079809999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42900</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>445.85341649999998</v>
+      </c>
+      <c r="D7">
+        <v>249.13292730000001</v>
+      </c>
+      <c r="E7">
+        <v>101.7080917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>42924</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>370.04806719999999</v>
+      </c>
+      <c r="D8">
+        <v>141.56001209999999</v>
+      </c>
+      <c r="E8">
+        <v>57.791632919999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>362.56496179999999</v>
+      </c>
+      <c r="D9">
+        <v>135.79688659999999</v>
+      </c>
+      <c r="E9">
+        <v>55.438846810000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>311.99880830000001</v>
+      </c>
+      <c r="D10">
+        <v>132.20070419999999</v>
+      </c>
+      <c r="E10">
+        <v>53.970711489999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>43011</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>367.43887180000002</v>
+      </c>
+      <c r="D11">
+        <v>159.68405780000001</v>
+      </c>
+      <c r="E11">
+        <v>65.190743589999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43043</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>483.53811960000002</v>
+      </c>
+      <c r="D12">
+        <v>239.6386124</v>
+      </c>
+      <c r="E12">
+        <v>97.832053830000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>43076</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>333.27252240000001</v>
+      </c>
+      <c r="D13">
+        <v>107.471501</v>
+      </c>
+      <c r="E13">
+        <v>43.875056549999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>388.86238539999999</v>
+      </c>
+      <c r="D14">
+        <v>195.97776260000001</v>
+      </c>
+      <c r="E14">
+        <v>80.007586540000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>372.06552490000001</v>
+      </c>
+      <c r="D15">
+        <v>124.7928443</v>
+      </c>
+      <c r="E15">
+        <v>50.946465340000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>235.46218519999999</v>
+      </c>
+      <c r="D16">
+        <v>82.912227590000001</v>
+      </c>
+      <c r="E16">
+        <v>33.848775170000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>301.26849750000002</v>
+      </c>
+      <c r="D17">
+        <v>110.7594795</v>
+      </c>
+      <c r="E17">
+        <v>45.217368159999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>725.57503840000004</v>
+      </c>
+      <c r="D18">
+        <v>408.42475250000001</v>
+      </c>
+      <c r="E18">
+        <v>166.73870700000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>516.15191649999997</v>
+      </c>
+      <c r="D19">
+        <v>194.84021920000001</v>
+      </c>
+      <c r="E19">
+        <v>79.543186390000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>515.04700349999996</v>
+      </c>
+      <c r="D20">
+        <v>243.41956769999999</v>
+      </c>
+      <c r="E20">
+        <v>99.375622399999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>605.40025319999995</v>
+      </c>
+      <c r="D21">
+        <v>113.26291519999999</v>
+      </c>
+      <c r="E21">
+        <v>46.239391490000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>362.92447809999999</v>
+      </c>
+      <c r="D22">
+        <v>79.68443388</v>
+      </c>
+      <c r="E22">
+        <v>32.531033909999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>539.46039640000004</v>
+      </c>
+      <c r="D23">
+        <v>132.22288069999999</v>
+      </c>
+      <c r="E23">
+        <v>53.979765020000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43410</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>373.98121700000002</v>
+      </c>
+      <c r="D24">
+        <v>74.56976813</v>
+      </c>
+      <c r="E24">
+        <v>30.44298036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>640.98099300000001</v>
+      </c>
+      <c r="D25">
+        <v>97.814615489999994</v>
+      </c>
+      <c r="E25">
+        <v>39.932649560000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>672.28458390000003</v>
+      </c>
+      <c r="D26">
+        <v>99.617894230000005</v>
+      </c>
+      <c r="E26">
+        <v>40.668835020000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43503</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>649.20984629999998</v>
+      </c>
+      <c r="D27">
+        <v>136.33164489999999</v>
+      </c>
+      <c r="E27">
+        <v>55.657160990000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>512.82540979999999</v>
+      </c>
+      <c r="D28">
+        <v>99.237509919999994</v>
+      </c>
+      <c r="E28">
+        <v>40.513543769999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>491.10340609999997</v>
+      </c>
+      <c r="D29">
+        <v>182.41841220000001</v>
+      </c>
+      <c r="E29">
+        <v>74.472004929999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>462.17637989999997</v>
+      </c>
+      <c r="D30">
+        <v>258.55382700000001</v>
+      </c>
+      <c r="E30">
+        <v>105.55415790000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43631</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>485.15616799999998</v>
+      </c>
+      <c r="D31">
+        <v>146.7363799</v>
+      </c>
+      <c r="E31">
+        <v>59.904876250000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43657</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>264.57212961769085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43684</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>362.9776482995432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>285.52292503474723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>476.36648212149186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>386.73099465080577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>458.06056665101943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>634.01981864443303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>698.45995186012226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>458.87822084470173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>454.74326942431685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>150.99511793677314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>494.09937562358192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>579.23864429102036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>685.22561122902414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="29">
+        <v>44082</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>568.55739774564029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>42749</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>948.89696119999996</v>
+      </c>
+      <c r="D47">
+        <v>209.16043289999999</v>
+      </c>
+      <c r="E47">
+        <v>85.38938915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>42777</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>825.39738799999998</v>
+      </c>
+      <c r="D48">
+        <v>450.69495569999998</v>
+      </c>
+      <c r="E48">
+        <v>183.99544520000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>42805</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>563.28423080000005</v>
+      </c>
+      <c r="D49">
+        <v>246.80813850000001</v>
+      </c>
+      <c r="E49">
+        <v>100.75900059999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>42833</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>610.81555390000005</v>
+      </c>
+      <c r="D50">
+        <v>352.62665659999999</v>
+      </c>
+      <c r="E50">
+        <v>143.95922970000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>42869</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>589.59878830000002</v>
+      </c>
+      <c r="D51">
+        <v>411.6626243</v>
+      </c>
+      <c r="E51">
+        <v>168.0605626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4">
+        <v>375.41051800000002</v>
+      </c>
+      <c r="D52">
+        <v>192.47463300000001</v>
+      </c>
+      <c r="E52">
+        <v>78.577439870000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>42924</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4">
+        <v>335.60982109999998</v>
+      </c>
+      <c r="D53">
+        <v>156.54018339999999</v>
+      </c>
+      <c r="E53">
+        <v>63.907262279999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>324.78198300000003</v>
+      </c>
+      <c r="D54">
+        <v>88.470317829999999</v>
+      </c>
+      <c r="E54">
+        <v>36.117856009999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>422.3314206</v>
+      </c>
+      <c r="D55">
+        <v>107.66548179999999</v>
+      </c>
+      <c r="E55">
+        <v>43.954248880000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>43011</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4">
+        <v>272.82731250000001</v>
+      </c>
+      <c r="D56">
+        <v>133.76956770000001</v>
+      </c>
+      <c r="E56">
+        <v>54.611197339999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>43043</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>304.10462819999998</v>
+      </c>
+      <c r="D57">
+        <v>134.09682609999999</v>
+      </c>
+      <c r="E57">
+        <v>54.744799999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>43076</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>209.21766940000001</v>
+      </c>
+      <c r="D58">
+        <v>62.129018539999997</v>
+      </c>
+      <c r="E58">
+        <v>25.364065610000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>317.87914169999999</v>
+      </c>
+      <c r="D59">
+        <v>180.56737609999999</v>
+      </c>
+      <c r="E59">
+        <v>73.716322590000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>43146</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>282.65759700000001</v>
+      </c>
+      <c r="D60">
+        <v>117.99469240000001</v>
+      </c>
+      <c r="E60">
+        <v>48.171131469999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>43172</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>161.0268165</v>
+      </c>
+      <c r="D61">
+        <v>45.003651650000002</v>
+      </c>
+      <c r="E61">
+        <v>18.372663849999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>340.82729640000002</v>
+      </c>
+      <c r="D62">
+        <v>191.95226539999999</v>
+      </c>
+      <c r="E62">
+        <v>78.364184179999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>347.11254020000001</v>
+      </c>
+      <c r="D63">
+        <v>138.55359609999999</v>
+      </c>
+      <c r="E63">
+        <v>56.564268759999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>43266</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>387.09260180000001</v>
+      </c>
+      <c r="D64">
+        <v>180.4826176</v>
+      </c>
+      <c r="E64">
+        <v>73.681720110000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>43282</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4">
+        <v>390.95743440000001</v>
+      </c>
+      <c r="D65">
+        <v>385.04055849999997</v>
+      </c>
+      <c r="E65">
+        <v>157.19214980000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>43313</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4">
+        <v>470.57093229999998</v>
+      </c>
+      <c r="D66">
+        <v>120.1722525</v>
+      </c>
+      <c r="E66">
+        <v>49.060116620000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>43352</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4">
+        <v>252.13761349999999</v>
+      </c>
+      <c r="D67">
+        <v>40.37272565</v>
+      </c>
+      <c r="E67">
+        <v>16.48209623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>43377</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4">
+        <v>448.32331790000001</v>
+      </c>
+      <c r="D68">
+        <v>230.9273991</v>
+      </c>
+      <c r="E68">
+        <v>94.275715899999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>43410</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4">
+        <v>452.23400500000002</v>
+      </c>
+      <c r="D69">
+        <v>173.65394019999999</v>
+      </c>
+      <c r="E69">
+        <v>70.893924220000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>43439</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4">
+        <v>402.31625129999998</v>
+      </c>
+      <c r="D70">
+        <v>138.5940803</v>
+      </c>
+      <c r="E70">
+        <v>56.580796339999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>43480</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>414.3946818</v>
+      </c>
+      <c r="D71">
+        <v>176.4034072</v>
+      </c>
+      <c r="E71">
+        <v>72.016389399999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>43503</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4">
+        <v>442.252341</v>
+      </c>
+      <c r="D72">
+        <v>143.0663279</v>
+      </c>
+      <c r="E72">
+        <v>58.406583789999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>43531</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4">
+        <v>248.0122528</v>
+      </c>
+      <c r="D73">
+        <v>108.4025183</v>
+      </c>
+      <c r="E73">
+        <v>44.255142769999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>43560</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>340.6483978</v>
+      </c>
+      <c r="D74">
+        <v>191.12343949999999</v>
+      </c>
+      <c r="E74">
+        <v>78.025817439999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>43588</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4">
+        <v>312.47203109999998</v>
+      </c>
+      <c r="D75">
+        <v>194.1567785</v>
+      </c>
+      <c r="E75">
+        <v>79.264172919999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>43631</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4">
+        <v>377.32031690000002</v>
+      </c>
+      <c r="D76">
+        <v>133.49948380000001</v>
+      </c>
+      <c r="E76">
+        <v>54.50093605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>159.23779057858295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>235.34858844853784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>43719</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4">
+        <v>160.23559076710967</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>43747</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>460.87499918200598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>43775</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>468.88395572892733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>43809</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>359.98585128467374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>43844</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>592.74150542616746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>692.10323455166417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>43895</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4">
+        <v>288.69056226906628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4">
+        <v>361.14412243830975</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4">
+        <v>120.93320578521131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4">
+        <v>326.47836170175987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>469.00883481104051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>44054</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>623.54696771037413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>44082</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>341.26211948932536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA483FDF-1EEC-4DF6-8862-42CA4BFF196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4068C81-DDCF-450D-85EB-91BA7B4F909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
@@ -5808,7 +5808,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4068C81-DDCF-450D-85EB-91BA7B4F909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557107BF-91E2-4DDA-94EC-6554C9C2E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
     <sheet name="leaf" sheetId="2" r:id="rId2"/>
-    <sheet name="shrimp" sheetId="3" r:id="rId3"/>
-    <sheet name="chlorophyll" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="shrimp" sheetId="3" r:id="rId4"/>
+    <sheet name="chlorophyll" sheetId="4" r:id="rId5"/>
+    <sheet name="leafInputate" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="18">
   <si>
     <t>canopy</t>
   </si>
@@ -68,6 +70,30 @@
   </si>
   <si>
     <t>leaf</t>
+  </si>
+  <si>
+    <t>sdA</t>
+  </si>
+  <si>
+    <t>meanA</t>
+  </si>
+  <si>
+    <t>meanB</t>
+  </si>
+  <si>
+    <t>sdB</t>
+  </si>
+  <si>
+    <t>meanC</t>
+  </si>
+  <si>
+    <t>sdC</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>dataCTE</t>
   </si>
 </sst>
 </file>
@@ -143,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -214,6 +240,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2208,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4088051-04AF-4FA6-AF68-8C0F295BD696}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5804,11 +5831,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F59513-10C1-4897-9CCC-C312A81CE0CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0DCC2-9B1A-4289-981D-F0A202653F1A}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7098,7 +7137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA04F0F5-94F6-4ECC-910C-1083F193A778}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -8481,4 +8520,1430 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7289E8-F4B8-47AA-89EC-66E1F7D8BAC0}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42745</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.59073724007561423</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.31610569958772489</v>
+      </c>
+      <c r="F2" s="12">
+        <v>9.9961399205815926E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.280666667</v>
+      </c>
+      <c r="H2">
+        <v>0.62979526399999997</v>
+      </c>
+      <c r="I2">
+        <v>2.6198333329999999</v>
+      </c>
+      <c r="J2">
+        <v>1.8872725669999999</v>
+      </c>
+      <c r="K2">
+        <v>1.9843333329999999</v>
+      </c>
+      <c r="L2">
+        <v>0.52917111999999999</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>42759</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0430731839049419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.8338209509998129</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.57990510260954398</v>
+      </c>
+      <c r="G3">
+        <v>1.8935</v>
+      </c>
+      <c r="H3">
+        <v>0.73984029799999995</v>
+      </c>
+      <c r="I3">
+        <v>1.960166667</v>
+      </c>
+      <c r="J3">
+        <v>0.57889354900000001</v>
+      </c>
+      <c r="K3">
+        <v>1.7471666669999999</v>
+      </c>
+      <c r="L3">
+        <v>0.64752071300000003</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>42776</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4494606916490602</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6859348154117639</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.53313940032767215</v>
+      </c>
+      <c r="G4">
+        <v>1.6046666666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.56466679784860074</v>
+      </c>
+      <c r="I4">
+        <v>1.8213333333333332</v>
+      </c>
+      <c r="J4">
+        <v>0.70149132145314064</v>
+      </c>
+      <c r="K4">
+        <v>2.2691666666666666</v>
+      </c>
+      <c r="L4">
+        <v>0.79059028579916091</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>42787</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0704158790170133</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.55075056161909774</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.17416261973332611</v>
+      </c>
+      <c r="G5">
+        <v>1.1643333333333332</v>
+      </c>
+      <c r="H5">
+        <v>0.36433175764628262</v>
+      </c>
+      <c r="I5">
+        <v>1.1763333333333332</v>
+      </c>
+      <c r="J5">
+        <v>0.51759715495239611</v>
+      </c>
+      <c r="K5">
+        <v>1.3734999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.39677827561498358</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>42800</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4788122243226212</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.88613843514847501</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.28022157772865885</v>
+      </c>
+      <c r="G6">
+        <v>2.9324999999999997</v>
+      </c>
+      <c r="H6">
+        <v>1.2580666384046066</v>
+      </c>
+      <c r="I6">
+        <v>4.0951666666666666</v>
+      </c>
+      <c r="J6">
+        <v>4.186733558382822</v>
+      </c>
+      <c r="K6">
+        <v>2.3866666666666672</v>
+      </c>
+      <c r="L6">
+        <v>0.76054502873974417</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>42814</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.75816905211990271</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.72422032330974528</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.22901857494423283</v>
+      </c>
+      <c r="G7">
+        <v>2.5888333333333335</v>
+      </c>
+      <c r="H7">
+        <v>0.57327554618337861</v>
+      </c>
+      <c r="I7">
+        <v>2.1468333333333334</v>
+      </c>
+      <c r="J7">
+        <v>1.2657144227668418</v>
+      </c>
+      <c r="K7">
+        <v>3.5081666666666664</v>
+      </c>
+      <c r="L7">
+        <v>1.0568469352013314</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>42828</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.3907642452065894</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.75288533167562544</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.25096177722520846</v>
+      </c>
+      <c r="G8">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.4194134939004457</v>
+      </c>
+      <c r="I8">
+        <v>3.9593333333333334</v>
+      </c>
+      <c r="J8">
+        <v>2.4509985871220068</v>
+      </c>
+      <c r="K8">
+        <v>4.3575000000000008</v>
+      </c>
+      <c r="L8">
+        <v>1.8358417082574854</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>42843</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1997479521109014</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.76530627951364194</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.24201109508925672</v>
+      </c>
+      <c r="G9">
+        <v>2.4631666666666669</v>
+      </c>
+      <c r="H9">
+        <v>1.5706383109117457</v>
+      </c>
+      <c r="I9">
+        <v>2.8741666666666665</v>
+      </c>
+      <c r="J9">
+        <v>1.4061169410301029</v>
+      </c>
+      <c r="K9">
+        <v>3.5423333333333331</v>
+      </c>
+      <c r="L9">
+        <v>0.78154140195063471</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>42860</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.7624819303903034</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.8368675143251467</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.58086851052394317</v>
+      </c>
+      <c r="G10">
+        <v>4.5403333333333338</v>
+      </c>
+      <c r="H10">
+        <v>2.8670623757893137</v>
+      </c>
+      <c r="I10">
+        <v>3.5543333333333336</v>
+      </c>
+      <c r="J10">
+        <v>1.9742082519891915</v>
+      </c>
+      <c r="K10">
+        <v>5.6756666666666664</v>
+      </c>
+      <c r="L10">
+        <v>1.4164775821525544</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>42871</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.046457008649825</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.2741592502787307</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.75805308342624356</v>
+      </c>
+      <c r="G11">
+        <v>8.570384615384615</v>
+      </c>
+      <c r="H11">
+        <v>6.7755946339046895</v>
+      </c>
+      <c r="I11">
+        <v>5.4761538461538457</v>
+      </c>
+      <c r="J11">
+        <v>2.1606744326586491</v>
+      </c>
+      <c r="K11">
+        <v>10.060384615384615</v>
+      </c>
+      <c r="L11">
+        <v>5.5620824821699211</v>
+      </c>
+      <c r="M11" s="30">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12">
+        <v>6.1862500000000002</v>
+      </c>
+      <c r="H12">
+        <v>1.0177987634678394</v>
+      </c>
+      <c r="I12">
+        <v>15.381875000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.37580261330473302</v>
+      </c>
+      <c r="K12">
+        <v>18.7696875</v>
+      </c>
+      <c r="L12">
+        <v>10.08378077734859</v>
+      </c>
+      <c r="M12" s="1">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>42903</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.3407650394751471</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.88857060100201957</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.28099069610310767</v>
+      </c>
+      <c r="G13">
+        <v>3.8332142857142855</v>
+      </c>
+      <c r="H13">
+        <v>1.5802472789361268</v>
+      </c>
+      <c r="I13">
+        <v>5.9432142857142853</v>
+      </c>
+      <c r="J13">
+        <v>0.92450124446666593</v>
+      </c>
+      <c r="K13">
+        <v>17.332500000000003</v>
+      </c>
+      <c r="L13">
+        <v>9.3918717661661439</v>
+      </c>
+      <c r="M13" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>42905</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.126654064272212</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.64992538332698635</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.20552445204712994</v>
+      </c>
+      <c r="G14">
+        <v>3.945357142857143</v>
+      </c>
+      <c r="H14">
+        <v>1.2796896546604171</v>
+      </c>
+      <c r="I14">
+        <v>4.0794642857142858</v>
+      </c>
+      <c r="J14">
+        <v>1.4423473138635952</v>
+      </c>
+      <c r="K14">
+        <v>8.5894642857142856</v>
+      </c>
+      <c r="L14">
+        <v>3.0064501167359792</v>
+      </c>
+      <c r="M14" s="30">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>42921</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.4436141304347827</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.5222248173524786</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.53818774542019565</v>
+      </c>
+      <c r="G15">
+        <v>2.628392857142857</v>
+      </c>
+      <c r="H15">
+        <v>0.93306192148202527</v>
+      </c>
+      <c r="I15">
+        <v>2.953035714285714</v>
+      </c>
+      <c r="J15">
+        <v>1.3115085014286916</v>
+      </c>
+      <c r="K15">
+        <v>6.7330357142857142</v>
+      </c>
+      <c r="L15">
+        <v>6.17425666502829</v>
+      </c>
+      <c r="M15" s="1">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>42937</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.6401819470699432</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.1398941820439068</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.36046619068333541</v>
+      </c>
+      <c r="G16">
+        <v>3.2521666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.60432916588622587</v>
+      </c>
+      <c r="I16">
+        <v>3.5231666666666666</v>
+      </c>
+      <c r="J16">
+        <v>1.4330936621325365</v>
+      </c>
+      <c r="K16">
+        <v>3.7683333333333331</v>
+      </c>
+      <c r="L16">
+        <v>0.91125871433114136</v>
+      </c>
+      <c r="M16" s="1">
+        <v>42943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>42961</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.3890201638311279</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.76293908740448824</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.24126252321684635</v>
+      </c>
+      <c r="G17">
+        <v>4.7988333333333335</v>
+      </c>
+      <c r="H17">
+        <v>0.51346964279699536</v>
+      </c>
+      <c r="I17">
+        <v>3.9874999999999998</v>
+      </c>
+      <c r="J17">
+        <v>1.3146135187589183</v>
+      </c>
+      <c r="K17">
+        <v>5.23</v>
+      </c>
+      <c r="L17">
+        <v>1.2630844081937773</v>
+      </c>
+      <c r="M17" s="1">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>42976</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.5529300567107749</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.99618990974228772</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.31502290968631902</v>
+      </c>
+      <c r="G18">
+        <v>4.7667857142857146</v>
+      </c>
+      <c r="H18">
+        <v>0.92137384481260365</v>
+      </c>
+      <c r="I18">
+        <v>7.2833928571428581</v>
+      </c>
+      <c r="J18">
+        <v>3.2028228076299818</v>
+      </c>
+      <c r="K18">
+        <v>8.6964285714285712</v>
+      </c>
+      <c r="L18">
+        <v>1.9852053989928791</v>
+      </c>
+      <c r="M18" s="1">
+        <v>42971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19">
+        <v>3.101346153846154</v>
+      </c>
+      <c r="H19">
+        <v>0.73533402223775479</v>
+      </c>
+      <c r="I19">
+        <v>3.536346153846154</v>
+      </c>
+      <c r="J19">
+        <v>0.70936991098540436</v>
+      </c>
+      <c r="K19">
+        <v>4.8169230769230769</v>
+      </c>
+      <c r="L19">
+        <v>1.5701118692791551</v>
+      </c>
+      <c r="M19" s="1">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>42993</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.8595574335594343</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.6005145423389004</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2.4034937343023195</v>
+      </c>
+      <c r="G20">
+        <v>62.074807692307701</v>
+      </c>
+      <c r="H20">
+        <v>18.986025021171123</v>
+      </c>
+      <c r="I20">
+        <v>65.177307692307693</v>
+      </c>
+      <c r="J20">
+        <v>26.664855923483263</v>
+      </c>
+      <c r="K20">
+        <v>82.161538461538456</v>
+      </c>
+      <c r="L20">
+        <v>25.051056275391304</v>
+      </c>
+      <c r="M20" s="1">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>43008</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21">
+        <v>36.052187500000002</v>
+      </c>
+      <c r="H21">
+        <v>7.222983255509793</v>
+      </c>
+      <c r="I21">
+        <v>60.434843749999999</v>
+      </c>
+      <c r="J21">
+        <v>27.438940657769084</v>
+      </c>
+      <c r="K21">
+        <v>25.195937499999999</v>
+      </c>
+      <c r="L21">
+        <v>17.941524697292081</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>43026</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.242281033396345</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.434225830338612</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.45354203029162365</v>
+      </c>
+      <c r="G22">
+        <v>5.0766666666666671</v>
+      </c>
+      <c r="H22">
+        <v>0.68512037331108322</v>
+      </c>
+      <c r="I22">
+        <v>5.8158333333333339</v>
+      </c>
+      <c r="J22">
+        <v>1.9816722736113528</v>
+      </c>
+      <c r="K22">
+        <v>2.302</v>
+      </c>
+      <c r="L22">
+        <v>0.64392431117214211</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>43038</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.12956836798991805</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.10569793366013495</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3.3424621433940413E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.0453571428571429</v>
+      </c>
+      <c r="H23">
+        <v>0.39646632166892426</v>
+      </c>
+      <c r="I23">
+        <v>1.8014285714285714</v>
+      </c>
+      <c r="J23">
+        <v>0.83399721854705189</v>
+      </c>
+      <c r="K23">
+        <v>0.77196428571428577</v>
+      </c>
+      <c r="L23">
+        <v>0.44562780563656773</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>43053</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.2028085336213863E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.8524284103191969E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2.4831558940023896E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.64714285714285713</v>
+      </c>
+      <c r="H24">
+        <v>0.21086395007724038</v>
+      </c>
+      <c r="I24">
+        <v>1.4235714285714285</v>
+      </c>
+      <c r="J24">
+        <v>0.80046181398381422</v>
+      </c>
+      <c r="K24">
+        <v>0.70321428571428568</v>
+      </c>
+      <c r="L24">
+        <v>0.3500954680293562</v>
+      </c>
+      <c r="M24" s="1">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>43069</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.14900478149671964</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.1766918598664913</v>
+      </c>
+      <c r="F25" s="12">
+        <v>5.5874872118940724E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.83250000000000013</v>
+      </c>
+      <c r="H25">
+        <v>0.53665140258006994</v>
+      </c>
+      <c r="I25">
+        <v>1.0883928571428572</v>
+      </c>
+      <c r="J25">
+        <v>0.70545719603826906</v>
+      </c>
+      <c r="K25">
+        <v>0.43803571428571431</v>
+      </c>
+      <c r="L25">
+        <v>0.18223795369984672</v>
+      </c>
+      <c r="M25" s="1">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>43082</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.15958993747273517</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.2171160166735808</v>
+      </c>
+      <c r="F26" s="12">
+        <v>6.8658112919160991E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>43098</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.19287570888468808</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.11389515099873568</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3.6016809160480612E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>43123</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.1115311909262753E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>9.2225076902002934E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.9164130039451466E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>43131</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.2476370510396975</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3.1087871780791625</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.98308482434576316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>43147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.1993738185255198</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.1791429551879245</v>
+      </c>
+      <c r="F30" s="15">
+        <v>5.664997651673187E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>43159</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9.8456206679269062E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6.257285910424798E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1.9787275447822696E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>43173</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.21806643262219819</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.16469840006721789</v>
+      </c>
+      <c r="F32" s="15">
+        <v>5.2082207119803742E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>43187</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.29773156899810965</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.35176493918604923</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.11123784088185319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>43203</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.33184523809523803</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.301809944186614</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9.5440684411799481E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>43216</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.50146520146520146</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.76076009392854094</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.24057346497778229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>43236</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.75738095238095227</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.72308900541397203</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.22866082081339759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>43250</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.16438736372264023</v>
+      </c>
+      <c r="F37" s="17">
+        <v>5.4795787907546745E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>43266</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.2592261904761905</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.2124334351748719</v>
+      </c>
+      <c r="F38" s="17">
+        <v>6.7177350632632499E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>43280</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.50714285714285723</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.491314335090067</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.15536723459758001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>43297</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.31624649859943976</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.15390281263669145</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4.8668342623808911E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>43311</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.28843537414965981</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.22704516883731718</v>
+      </c>
+      <c r="F41" s="17">
+        <v>7.179798652634059E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>43326</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.47079365079365076</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.4284683395512629</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.13549358582523982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>43340</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.36394557823129242</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.21497148782152556</v>
+      </c>
+      <c r="F43" s="17">
+        <v>6.7979953351116909E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>43360</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.47714285714285715</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.3951427819031989</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.1249551191789272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>43371</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.30822510822510824</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.27237813302469877</v>
+      </c>
+      <c r="F45" s="17">
+        <v>8.6133528518237593E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557107BF-91E2-4DDA-94EC-6554C9C2E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFF08F2-A109-4E1E-8732-3F99F1BD4F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
@@ -8527,7 +8527,8 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:M20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\24 data summary\datasummaryLTER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFF08F2-A109-4E1E-8732-3F99F1BD4F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
     <sheet name="leaf" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="shrimp" sheetId="3" r:id="rId4"/>
-    <sheet name="chlorophyll" sheetId="4" r:id="rId5"/>
-    <sheet name="leafInputate" sheetId="5" r:id="rId6"/>
+    <sheet name="shrimp" sheetId="3" r:id="rId3"/>
+    <sheet name="chlorophyll" sheetId="4" r:id="rId4"/>
+    <sheet name="leafInputate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="18">
   <si>
     <t>canopy</t>
   </si>
@@ -148,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,11 +164,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -241,6 +255,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5452ECA5-08A6-472E-92B6-3C8E36637D0E}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,108 +1407,100 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>44102</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
         <v>19.673333333333332</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>9.5166748394594176</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>3.1722249464864727</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>42749</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="5">
+        <v>44134</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>11.873333329999999</v>
-      </c>
-      <c r="E43">
-        <v>2.8392428569999999</v>
-      </c>
-      <c r="F43">
-        <v>0.94641428599999999</v>
-      </c>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42809</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="5">
+        <v>44136</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>12.56666667</v>
-      </c>
-      <c r="E44">
-        <v>4.7427734499999996</v>
-      </c>
-      <c r="F44">
-        <v>1.580924483</v>
-      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>11.87</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>42872</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="5">
+        <v>44188</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>13.823333330000001</v>
-      </c>
-      <c r="E45">
-        <v>4.0023676330000004</v>
-      </c>
-      <c r="F45">
-        <v>1.334122544</v>
-      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>14.82</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>42924</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="6">
+        <v>44222</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>10.34222222</v>
-      </c>
-      <c r="E46">
-        <v>2.5862413740000001</v>
-      </c>
-      <c r="F46">
-        <v>0.86208045799999999</v>
-      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>42982</v>
+        <v>42749</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1497,18 +1509,18 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>6.9333333330000002</v>
+        <v>11.873333329999999</v>
       </c>
       <c r="E47">
-        <v>2.0554804789999999</v>
+        <v>2.8392428569999999</v>
       </c>
       <c r="F47">
-        <v>0.68516016000000002</v>
+        <v>0.94641428599999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>42988</v>
+        <v>42809</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1517,18 +1529,18 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>14.617777780000001</v>
+        <v>12.56666667</v>
       </c>
       <c r="E48">
-        <v>3.7873928289999998</v>
+        <v>4.7427734499999996</v>
       </c>
       <c r="F48">
-        <v>1.262464276</v>
+        <v>1.580924483</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43012</v>
+        <v>42872</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1537,18 +1549,18 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>75.284444440000001</v>
+        <v>13.823333330000001</v>
       </c>
       <c r="E49">
-        <v>12.84773045</v>
+        <v>4.0023676330000004</v>
       </c>
       <c r="F49">
-        <v>4.2825768169999998</v>
+        <v>1.334122544</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43047</v>
+        <v>42924</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -1557,18 +1569,18 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>52.433333330000004</v>
+        <v>10.34222222</v>
       </c>
       <c r="E50">
-        <v>9.4247758590000004</v>
+        <v>2.5862413740000001</v>
       </c>
       <c r="F50">
-        <v>3.1415919529999998</v>
+        <v>0.86208045799999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43080</v>
+        <v>42982</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -1577,18 +1589,18 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>51.624444439999998</v>
+        <v>6.9333333330000002</v>
       </c>
       <c r="E51">
-        <v>3.8324897619999998</v>
+        <v>2.0554804789999999</v>
       </c>
       <c r="F51">
-        <v>1.2774965869999999</v>
+        <v>0.68516016000000002</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43125</v>
+        <v>42988</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -1597,18 +1609,18 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>49.313333329999999</v>
+        <v>14.617777780000001</v>
       </c>
       <c r="E52">
-        <v>2.7423530039999999</v>
+        <v>3.7873928289999998</v>
       </c>
       <c r="F52">
-        <v>0.91411766800000005</v>
+        <v>1.262464276</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43146</v>
+        <v>43012</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -1617,18 +1629,18 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>44.662222219999997</v>
+        <v>75.284444440000001</v>
       </c>
       <c r="E53">
-        <v>1.8282353360000001</v>
+        <v>12.84773045</v>
       </c>
       <c r="F53">
-        <v>0.60941177899999999</v>
+        <v>4.2825768169999998</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43172</v>
+        <v>43047</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -1637,18 +1649,18 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>40.531111109999998</v>
+        <v>52.433333330000004</v>
       </c>
       <c r="E54">
-        <v>4.2473298799999997</v>
+        <v>9.4247758590000004</v>
       </c>
       <c r="F54">
-        <v>1.4157766270000001</v>
+        <v>3.1415919529999998</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43203</v>
+        <v>43080</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -1657,18 +1669,18 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>34.608888890000003</v>
+        <v>51.624444439999998</v>
       </c>
       <c r="E55">
-        <v>5.8434160479999999</v>
+        <v>3.8324897619999998</v>
       </c>
       <c r="F55">
-        <v>1.947805349</v>
+        <v>1.2774965869999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43229</v>
+        <v>43125</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -1677,18 +1689,18 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>30.708888890000001</v>
+        <v>49.313333329999999</v>
       </c>
       <c r="E56">
-        <v>5.1336742309999996</v>
+        <v>2.7423530039999999</v>
       </c>
       <c r="F56">
-        <v>1.7112247439999999</v>
+        <v>0.91411766800000005</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43264</v>
+        <v>43146</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -1697,18 +1709,18 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>38.653333330000002</v>
+        <v>44.662222219999997</v>
       </c>
       <c r="E57">
-        <v>5.4445018139999997</v>
+        <v>1.8282353360000001</v>
       </c>
       <c r="F57">
-        <v>1.814833938</v>
+        <v>0.60941177899999999</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43293</v>
+        <v>43172</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -1717,18 +1729,18 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>36.342222219999996</v>
+        <v>40.531111109999998</v>
       </c>
       <c r="E58">
-        <v>6.2721164250000001</v>
+        <v>4.2473298799999997</v>
       </c>
       <c r="F58">
-        <v>2.090705475</v>
+        <v>1.4157766270000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43330</v>
+        <v>43203</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -1737,18 +1749,18 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>33.68444444</v>
+        <v>34.608888890000003</v>
       </c>
       <c r="E59">
-        <v>6.327557015</v>
+        <v>5.8434160479999999</v>
       </c>
       <c r="F59">
-        <v>2.1091856720000002</v>
+        <v>1.947805349</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43368</v>
+        <v>43229</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -1757,18 +1769,18 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>38.422222220000002</v>
+        <v>30.708888890000001</v>
       </c>
       <c r="E60">
-        <v>9.3072898550000005</v>
+        <v>5.1336742309999996</v>
       </c>
       <c r="F60">
-        <v>3.102429952</v>
+        <v>1.7112247439999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43397</v>
+        <v>43264</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -1777,18 +1789,18 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>36.197777780000003</v>
+        <v>38.653333330000002</v>
       </c>
       <c r="E61">
-        <v>8.4427746890000002</v>
+        <v>5.4445018139999997</v>
       </c>
       <c r="F61">
-        <v>2.8142582300000001</v>
+        <v>1.814833938</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43432</v>
+        <v>43293</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -1797,18 +1809,18 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>36.717777779999999</v>
+        <v>36.342222219999996</v>
       </c>
       <c r="E62">
-        <v>11.673810189999999</v>
+        <v>6.2721164250000001</v>
       </c>
       <c r="F62">
-        <v>3.8912700650000001</v>
+        <v>2.090705475</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43465</v>
+        <v>43330</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -1817,18 +1829,18 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>34.782222220000001</v>
+        <v>33.68444444</v>
       </c>
       <c r="E63">
-        <v>9.2736370669999992</v>
+        <v>6.327557015</v>
       </c>
       <c r="F63">
-        <v>3.0912123560000002</v>
+        <v>2.1091856720000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43494</v>
+        <v>43368</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -1837,18 +1849,18 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>24.29555556</v>
+        <v>38.422222220000002</v>
       </c>
       <c r="E64">
-        <v>5.216404679</v>
+        <v>9.3072898550000005</v>
       </c>
       <c r="F64">
-        <v>1.73880156</v>
+        <v>3.102429952</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43521</v>
+        <v>43397</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -1857,18 +1869,18 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>31.142222220000001</v>
+        <v>36.197777780000003</v>
       </c>
       <c r="E65">
-        <v>7.3857595710000004</v>
+        <v>8.4427746890000002</v>
       </c>
       <c r="F65">
-        <v>2.4619198569999998</v>
+        <v>2.8142582300000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43551</v>
+        <v>43432</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -1877,18 +1889,18 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>28.02222222</v>
+        <v>36.717777779999999</v>
       </c>
       <c r="E66">
-        <v>3.8603166249999998</v>
+        <v>11.673810189999999</v>
       </c>
       <c r="F66">
-        <v>1.2867722079999999</v>
+        <v>3.8912700650000001</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43580</v>
+        <v>43465</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -1897,18 +1909,18 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>33.597777780000001</v>
+        <v>34.782222220000001</v>
       </c>
       <c r="E67">
-        <v>5.189879039</v>
+        <v>9.2736370669999992</v>
       </c>
       <c r="F67">
-        <v>1.7299596800000001</v>
+        <v>3.0912123560000002</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43635</v>
+        <v>43494</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -1917,98 +1929,98 @@
         <v>2</v>
       </c>
       <c r="D68">
+        <v>24.29555556</v>
+      </c>
+      <c r="E68">
+        <v>5.216404679</v>
+      </c>
+      <c r="F68">
+        <v>1.73880156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>31.142222220000001</v>
+      </c>
+      <c r="E69">
+        <v>7.3857595710000004</v>
+      </c>
+      <c r="F69">
+        <v>2.4619198569999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>28.02222222</v>
+      </c>
+      <c r="E70">
+        <v>3.8603166249999998</v>
+      </c>
+      <c r="F70">
+        <v>1.2867722079999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>33.597777780000001</v>
+      </c>
+      <c r="E71">
+        <v>5.189879039</v>
+      </c>
+      <c r="F71">
+        <v>1.7299596800000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
         <v>41.166666669999998</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>10.09573672</v>
       </c>
-      <c r="F68">
+      <c r="F72">
         <v>3.3652455749999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>43677</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>38.13333333333334</v>
-      </c>
-      <c r="E69">
-        <v>10.203964915658995</v>
-      </c>
-      <c r="F69" s="7">
-        <v>3.4013216385529983</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>43704</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>36.948888888888888</v>
-      </c>
-      <c r="E70">
-        <v>11.182603056136404</v>
-      </c>
-      <c r="F70" s="7">
-        <v>3.7275343520454682</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>43738</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>32.297777777777782</v>
-      </c>
-      <c r="E71">
-        <v>11.856240738296608</v>
-      </c>
-      <c r="F71" s="7">
-        <v>3.9520802460988693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>43767</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>32.904444444444444</v>
-      </c>
-      <c r="E72">
-        <v>11.526911024978826</v>
-      </c>
-      <c r="F72" s="7">
-        <v>3.8423036749929422</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>43795</v>
+        <v>43677</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>0</v>
@@ -2017,18 +2029,18 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>29.206666666666667</v>
+        <v>38.13333333333334</v>
       </c>
       <c r="E73">
-        <v>10.364188342557284</v>
+        <v>10.203964915658995</v>
       </c>
       <c r="F73" s="7">
-        <v>3.4547294475190946</v>
+        <v>3.4013216385529983</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>43826</v>
+        <v>43704</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>0</v>
@@ -2037,18 +2049,18 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>26.808888888888887</v>
+        <v>36.948888888888888</v>
       </c>
       <c r="E74">
-        <v>12.949490766478464</v>
+        <v>11.182603056136404</v>
       </c>
       <c r="F74" s="7">
-        <v>4.3164969221594882</v>
+        <v>3.7275343520454682</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>43861</v>
+        <v>43738</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>0</v>
@@ -2057,18 +2069,18 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>27.96444444444445</v>
+        <v>32.297777777777782</v>
       </c>
       <c r="E75">
-        <v>8.5978181986930586</v>
+        <v>11.856240738296608</v>
       </c>
       <c r="F75" s="7">
-        <v>2.8659393995643527</v>
+        <v>3.9520802460988693</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>43889</v>
+        <v>43767</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>0</v>
@@ -2077,18 +2089,18 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>31.460000000000004</v>
+        <v>32.904444444444444</v>
       </c>
       <c r="E76">
-        <v>9.6978605888102898</v>
+        <v>11.526911024978826</v>
       </c>
       <c r="F76" s="7">
-        <v>3.2326201962700964</v>
+        <v>3.8423036749929422</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>43914</v>
+        <v>43795</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>0</v>
@@ -2097,18 +2109,18 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>24.09333333333333</v>
+        <v>29.206666666666667</v>
       </c>
       <c r="E77">
-        <v>9.932034031355311</v>
+        <v>10.364188342557284</v>
       </c>
       <c r="F77" s="7">
-        <v>3.3106780104517703</v>
+        <v>3.4547294475190946</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>43948</v>
+        <v>43826</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>0</v>
@@ -2117,18 +2129,18 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>17.593333333333334</v>
+        <v>26.808888888888887</v>
       </c>
       <c r="E78">
-        <v>9.8859850293230807</v>
+        <v>12.949490766478464</v>
       </c>
       <c r="F78" s="7">
-        <v>3.2953283431076934</v>
+        <v>4.3164969221594882</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>43978</v>
+      <c r="A79" s="5">
+        <v>43861</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>0</v>
@@ -2137,18 +2149,18 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>26.057777777777783</v>
+        <v>27.96444444444445</v>
       </c>
       <c r="E79">
-        <v>13.455331450560571</v>
+        <v>8.5978181986930586</v>
       </c>
       <c r="F79" s="7">
-        <v>4.4851104835201907</v>
+        <v>2.8659393995643527</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>44012</v>
+      <c r="A80" s="3">
+        <v>43889</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>0</v>
@@ -2157,18 +2169,18 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>29.235555555555557</v>
+        <v>31.460000000000004</v>
       </c>
       <c r="E80">
-        <v>11.476217921326599</v>
+        <v>9.6978605888102898</v>
       </c>
       <c r="F80" s="7">
-        <v>3.825405973775533</v>
+        <v>3.2326201962700964</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>44040</v>
+      <c r="A81" s="5">
+        <v>43914</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>0</v>
@@ -2177,18 +2189,18 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>24.96</v>
+        <v>24.09333333333333</v>
       </c>
       <c r="E81">
-        <v>9.4694984027666464</v>
+        <v>9.932034031355311</v>
       </c>
       <c r="F81" s="7">
-        <v>3.156499467588882</v>
+        <v>3.3106780104517703</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>44068</v>
+        <v>43948</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>0</v>
@@ -2197,34 +2209,186 @@
         <v>2</v>
       </c>
       <c r="D82">
+        <v>17.593333333333334</v>
+      </c>
+      <c r="E82">
+        <v>9.8859850293230807</v>
+      </c>
+      <c r="F82" s="7">
+        <v>3.2953283431076934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>26.057777777777783</v>
+      </c>
+      <c r="E83">
+        <v>13.455331450560571</v>
+      </c>
+      <c r="F83" s="7">
+        <v>4.4851104835201907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>29.235555555555557</v>
+      </c>
+      <c r="E84">
+        <v>11.476217921326599</v>
+      </c>
+      <c r="F84" s="7">
+        <v>3.825405973775533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>44040</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>24.96</v>
+      </c>
+      <c r="E85">
+        <v>9.4694984027666464</v>
+      </c>
+      <c r="F85" s="7">
+        <v>3.156499467588882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>44068</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
         <v>26.231111111111108</v>
       </c>
-      <c r="E82">
+      <c r="E86">
         <v>11.355813978359771</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F86" s="7">
         <v>3.7852713261199238</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
         <v>44102</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83">
+      <c r="C87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4">
         <v>22.475555555555555</v>
       </c>
-      <c r="E83">
+      <c r="E87" s="4">
         <v>9.0329993788208451</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F87" s="15">
         <v>3.0109997929402819</v>
       </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>44134</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="31">
+        <v>25.306666669999998</v>
+      </c>
+      <c r="E88" s="31">
+        <v>3.5919647979999998</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>44136</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="31">
+        <v>19.702222219999999</v>
+      </c>
+      <c r="E89" s="31">
+        <v>2.6911283140000002</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>44188</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="31">
+        <v>12.884444439999999</v>
+      </c>
+      <c r="E90" s="31">
+        <v>2.6173157960000002</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>44222</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="32">
+        <v>20.88666667</v>
+      </c>
+      <c r="E91" s="32">
+        <v>3.721372208</v>
+      </c>
+      <c r="F91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5831,23 +5995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F59513-10C1-4897-9CCC-C312A81CE0CC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0DCC2-9B1A-4289-981D-F0A202653F1A}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7137,7 +7289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA04F0F5-94F6-4ECC-910C-1083F193A778}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -8522,11 +8674,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7289E8-F4B8-47AA-89EC-66E1F7D8BAC0}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/24 data summary/datasummaryLTER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E831D63-55D9-449C-829A-86EC6DC8FEA3}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A20CD7-EC1B-4499-99AB-6CB72EDC8D85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="24">
   <si>
     <t>canopy</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>tropical storm Laura</t>
+  </si>
+  <si>
+    <t>2015 Drought</t>
+  </si>
+  <si>
+    <t>Hurrican Irma</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -264,6 +270,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{A1CF7C5C-7156-4773-BA9C-D215CA1D0CF9}"/>
@@ -283,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,12 +597,12 @@
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42749</v>
       </c>
@@ -630,7 +642,7 @@
         <v>0.81120699600000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42809</v>
       </c>
@@ -650,7 +662,7 @@
         <v>0.97186533100000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42872</v>
       </c>
@@ -670,7 +682,7 @@
         <v>1.807507389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42924</v>
       </c>
@@ -690,7 +702,7 @@
         <v>0.96226456199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42982</v>
       </c>
@@ -710,7 +722,7 @@
         <v>0.68516016000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42988</v>
       </c>
@@ -730,7 +742,7 @@
         <v>1.1011935159999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43012</v>
       </c>
@@ -750,7 +762,7 @@
         <v>1.217196232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43047</v>
       </c>
@@ -770,7 +782,7 @@
         <v>1.352234548</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43080</v>
       </c>
@@ -790,7 +802,7 @@
         <v>1.6933300520000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43125</v>
       </c>
@@ -810,7 +822,7 @@
         <v>2.5760969139999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43146</v>
       </c>
@@ -830,7 +842,7 @@
         <v>1.699479586</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43172</v>
       </c>
@@ -850,7 +862,7 @@
         <v>2.8953815930000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43203</v>
       </c>
@@ -870,7 +882,7 @@
         <v>2.7990933280000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43229</v>
       </c>
@@ -890,7 +902,7 @@
         <v>3.7067382750000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -910,7 +922,7 @@
         <v>3.6584672629999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43293</v>
       </c>
@@ -930,7 +942,7 @@
         <v>4.0610986469999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43330</v>
       </c>
@@ -950,7 +962,7 @@
         <v>4.1323987889999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43368</v>
       </c>
@@ -970,7 +982,7 @@
         <v>4.0811115649999996</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43397</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>3.2167359420000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43432</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>4.1850768089999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43465</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>3.4807514799999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43494</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>2.993452113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43521</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>2.977728441</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43551</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>2.072966503</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43580</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>3.4296355489999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43635</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>3.7980649719119075</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43677</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>3.6275979196524357</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43704</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>3.530388884954792</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43738</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>3.8310195915853904</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43767</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>3.4831483204454852</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43795</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>3.2020111349965656</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43826</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>2.6419121862772079</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43861</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>2.3226828357646179</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43889</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>2.847424654050362</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43914</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>2.0308703966283121</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43948</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>2.6453847534578343</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43978</v>
       </c>
@@ -1350,7 +1362,7 @@
         <v>3.2981762637352561</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44012</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>2.3396433198668425</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44040</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>1.9994471458102847</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44068</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>2.4979702871642737</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44102</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>3.1722249464864727</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44134</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44136</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44188</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44222</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44251</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44280</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44316</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44342</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44374</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44404</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44434</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44469</v>
       </c>
@@ -1634,7 +1646,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44490</v>
       </c>
@@ -1651,7 +1663,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44519</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44552</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44592</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44620</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44649</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44680</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44708</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44741</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44768</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44803</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="24">
         <v>44834</v>
       </c>
@@ -1839,7 +1851,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42749</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>0.94641428599999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42809</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>1.580924483</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42872</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>1.334122544</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42924</v>
       </c>
@@ -1919,7 +1931,7 @@
         <v>0.86208045799999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42982</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>0.68516016000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42988</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>1.262464276</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43012</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>4.2825768169999998</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43047</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>3.1415919529999998</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43080</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>1.2774965869999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43125</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>0.91411766800000005</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43146</v>
       </c>
@@ -2059,7 +2071,7 @@
         <v>0.60941177899999999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43172</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>1.4157766270000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43203</v>
       </c>
@@ -2099,7 +2111,7 @@
         <v>1.947805349</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43229</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>1.7112247439999999</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43264</v>
       </c>
@@ -2139,7 +2151,7 @@
         <v>1.814833938</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43293</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>2.090705475</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43330</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>2.1091856720000002</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43368</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>3.102429952</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43397</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>2.8142582300000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43432</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>3.8912700650000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43465</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>3.0912123560000002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43494</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>1.73880156</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43521</v>
       </c>
@@ -2299,7 +2311,7 @@
         <v>2.4619198569999998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43551</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>1.2867722079999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43580</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>1.7299596800000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43635</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>3.3652455749999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43677</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>3.4013216385529983</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43704</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>3.7275343520454682</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43738</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>3.9520802460988693</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43767</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>3.8423036749929422</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43795</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>3.4547294475190946</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43826</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>4.3164969221594882</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43861</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>2.8659393995643527</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43889</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>3.2326201962700964</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43914</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>3.3106780104517703</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43948</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>3.2953283431076934</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43978</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>4.4851104835201907</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44012</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>3.825405973775533</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44040</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>3.156499467588882</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44068</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>3.7852713261199238</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44102</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>3.0109997929402819</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44134</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>3.5919647979999998</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44136</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>2.6911283140000002</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44188</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>2.6173157960000002</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44222</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>3.721372208</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44251</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>4.7369850290000004</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44280</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>3.7435084550000002</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44316</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>3.4148206399999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44342</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>4.1047898849999997</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44374</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>2.7168997849999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44404</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>2.6462127610000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44434</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>1.860027213</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44469</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>2.491739935</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44490</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>2.4388023269999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44519</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>2.4975943979999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44552</v>
       </c>
@@ -2914,7 +2926,7 @@
         <v>1.916489847</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44592</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>2.256248115</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44620</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>1.5829687690000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44649</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>2.0457637649999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44680</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>1.482228053</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44708</v>
       </c>
@@ -2999,7 +3011,7 @@
         <v>1.3584690909999999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44741</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>1.4416250260000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44768</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>1.6743721869999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44803</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>1.6308794870000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44834</v>
       </c>
@@ -3081,13 +3093,13 @@
       <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.85546875"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>42745</v>
       </c>
@@ -3127,7 +3139,7 @@
         <v>9.9961399205815926E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42759</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>0.57990510260954398</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42776</v>
       </c>
@@ -3167,7 +3179,7 @@
         <v>0.53313940032767215</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42787</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>0.17416261973332611</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42800</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>0.28022157772865885</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42814</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>0.22901857494423283</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42828</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>0.25096177722520846</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42843</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>0.24201109508925672</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42860</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>0.58086851052394317</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42871</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>0.75805308342624356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42903</v>
       </c>
@@ -3327,7 +3339,7 @@
         <v>0.28099069610310767</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42905</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>0.20552445204712994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42921</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>0.53818774542019565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42937</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>0.36046619068333541</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42961</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>0.24126252321684635</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42976</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>0.31502290968631902</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>42993</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>2.4034937343023195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>43026</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>0.45354203029162365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>43038</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>3.3424621433940413E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>43053</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>2.4831558940023896E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>43069</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>5.5874872118940724E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>43082</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>6.8658112919160991E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>43098</v>
       </c>
@@ -3567,7 +3579,7 @@
         <v>3.6016809160480612E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>43123</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>2.9164130039451466E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>43131</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>0.98308482434576316</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>43147</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>5.664997651673187E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>43159</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>1.9787275447822696E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>43173</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>5.2082207119803742E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>43187</v>
       </c>
@@ -3687,7 +3699,7 @@
         <v>0.11123784088185319</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>43203</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>9.5440684411799481E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>43216</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>0.24057346497778229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>43236</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>0.22866082081339759</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>43250</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>5.4795787907546745E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>43266</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>6.7177350632632499E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>43280</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>0.15536723459758001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>43297</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>4.8668342623808911E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>43311</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>7.179798652634059E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>43326</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>0.13549358582523982</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>43340</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>6.7979953351116909E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>43360</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>0.1249551191789272</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>43371</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>8.6133528518237593E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>43385</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>5.5238069685996566E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>43403</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>0.18252110396513349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>43419</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>8.006625212947556E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>43434</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>0.20127596464151629</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>43447</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>3.4386446917157081E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>43465</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>0.23872696909573188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>43483</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>2.7257665338394181E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>43496</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>5.8827596055659286E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>43511</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>0.10013534694357926</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
         <v>43521</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>6.4348196169078137E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>43538</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>0.25546395945676387</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>43553</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>0.34838008160535205</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>43570</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>0.22643556035523471</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>43584</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>0.35132029000732951</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
         <v>43602</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>0.10747323656085633</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="14">
         <v>43614</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>0.1021922430368228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14">
         <v>43634</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>0.18865124444023304</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>43646</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>0.30848854249874441</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="14">
         <v>43665</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>9.3506666554146037E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="14">
         <v>43677</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>0.13652864678732454</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
         <v>43692</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>0.1258826999261676</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="14">
         <v>43704</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>9.4086888275420652E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="14">
         <v>43724</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>0.19532552953959165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="14">
         <v>43735</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>0.54809277412759982</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="14">
         <v>43753</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>7.5847866746591344E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="14">
         <v>43767</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>9.6397094081077397E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="14">
         <v>43783</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>0.1531675238573221</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="14">
         <v>43796</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>6.7101617146193657E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="14">
         <v>43812</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>0.22430204535208939</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="14">
         <v>43826</v>
       </c>
@@ -4527,7 +4539,7 @@
         <v>0.53213006332232515</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="14">
         <v>43846</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>0.18446414874395436</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="14">
         <v>43861</v>
       </c>
@@ -4567,7 +4579,7 @@
         <v>8.8746258079511489E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="14">
         <v>43874</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>0.17601486615304435</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="14">
         <v>43889</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>9.2983835547849086E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="14">
         <v>43902</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>0.16205964068007594</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="14">
         <v>43921</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>6.6252989722031988E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="14">
         <v>43937</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>0.31746886831241999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
         <v>43951</v>
       </c>
@@ -4687,7 +4699,7 @@
         <v>0.22155043768570337</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="14">
         <v>43965</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>0.45538814556127144</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
         <v>43980</v>
       </c>
@@ -4727,7 +4739,7 @@
         <v>0.17761559905426899</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>43997</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>0.19286633640670148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
         <v>44011</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>0.18199160723829375</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
         <v>44027</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>2.16226924477031</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
         <v>44040</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>0.17760537703289273</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
         <v>44060</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>0.38332938128529026</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
         <v>44069</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>0.53883984997960577</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
         <v>44088</v>
       </c>
@@ -4867,7 +4879,7 @@
         <v>6.5914223664068114E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
         <v>44104</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>0.38025256708490457</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>42745</v>
       </c>
@@ -4907,7 +4919,7 @@
         <v>0.10184926948451196</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>42759</v>
       </c>
@@ -4927,7 +4939,7 @@
         <v>8.2440706386613702E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>42776</v>
       </c>
@@ -4947,7 +4959,7 @@
         <v>0.11002183821457792</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>42787</v>
       </c>
@@ -4967,7 +4979,7 @@
         <v>0.14535165667913555</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>42800</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>0.28449884765888689</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>42814</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>0.11782337062561153</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>42828</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>0.29080235582956754</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>42843</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>0.21008359134057925</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>42860</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>0.5603061137872386</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>42871</v>
       </c>
@@ -5087,7 +5099,7 @@
         <v>0.35626376720053671</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>42903</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>0.46365831694189757</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>42905</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>0.34194937222584965</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>42921</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>0.66632589393547925</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>42937</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>0.39595763106385945</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>42961</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>0.23953181718838981</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>42976</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>0.40110403638870806</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>42993</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>1.4148556699480426</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>43026</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>0.38380360754136156</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>43038</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>0.2639005441641265</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>43053</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>0.23772998132916998</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="17">
         <v>43069</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>0.12713254349376332</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="17">
         <v>43082</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>0.30411058668170304</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="17">
         <v>43098</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>0.18678471025531609</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="17">
         <v>43123</v>
       </c>
@@ -5367,7 +5379,7 @@
         <v>8.6941931873754374E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>43131</v>
       </c>
@@ -5387,7 +5399,7 @@
         <v>0.10863713345809942</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>43147</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>5.9689232626027683E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>43159</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>0.10185142171250652</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>43173</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>4.9699433395966761E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>43187</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>0.10664985012551025</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>43203</v>
       </c>
@@ -5487,7 +5499,7 @@
         <v>0.21263362256520082</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>43216</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>0.15418538292565495</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>43236</v>
       </c>
@@ -5527,7 +5539,7 @@
         <v>0.17152923631720812</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>43250</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>0.1098805266584299</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>43266</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>9.4439077561930387E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="17">
         <v>43280</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>0.12491949063242523</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>43297</v>
       </c>
@@ -5607,7 +5619,7 @@
         <v>0.13287737163147834</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>43311</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>9.3128633319630463E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>43326</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>7.1667325842035209E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="17">
         <v>43340</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>9.9752883925791805E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="17">
         <v>43360</v>
       </c>
@@ -5687,7 +5699,7 @@
         <v>0.15941092112445285</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="17">
         <v>43371</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>0.14595451362430967</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="17">
         <v>43385</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>0.11937143553682544</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="17">
         <v>43403</v>
       </c>
@@ -5747,7 +5759,7 @@
         <v>9.6272046553067966E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="17">
         <v>43419</v>
       </c>
@@ -5767,7 +5779,7 @@
         <v>8.7148632976849161E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="17">
         <v>43434</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>0.16284522622960126</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="17">
         <v>43447</v>
       </c>
@@ -5807,7 +5819,7 @@
         <v>6.6836036211025851E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>43465</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>0.25272459371886807</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="17">
         <v>43483</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>7.6849663677854299E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="17">
         <v>43496</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>0.6850536407994805</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>43511</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>0.1716129914675984</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="17">
         <v>43521</v>
       </c>
@@ -5907,7 +5919,7 @@
         <v>0.1474451954588388</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="17">
         <v>43538</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>6.2219072423226517E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="17">
         <v>43553</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>0.16804096825077841</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>43570</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>0.23711571111111371</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="17">
         <v>43584</v>
       </c>
@@ -5987,7 +5999,7 @@
         <v>0.23821033542687861</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="17">
         <v>43602</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>0.3715723936232278</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="17">
         <v>43614</v>
       </c>
@@ -6027,7 +6039,7 @@
         <v>0.12038749928274571</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="17">
         <v>43634</v>
       </c>
@@ -6047,7 +6059,7 @@
         <v>0.13876072019309324</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="17">
         <v>43646</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>0.21316791019489273</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="17">
         <v>43665</v>
       </c>
@@ -6087,7 +6099,7 @@
         <v>0.15279863636674826</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
         <v>43677</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>0.16212579415580805</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="17">
         <v>43692</v>
       </c>
@@ -6127,7 +6139,7 @@
         <v>6.3298224257426955E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="17">
         <v>43704</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>0.26379819283550798</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="17">
         <v>43724</v>
       </c>
@@ -6167,7 +6179,7 @@
         <v>0.18297652762686112</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="17">
         <v>43735</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>7.2036758349126151E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="17">
         <v>43753</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>0.10616032565838723</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="17">
         <v>43767</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>0.11113900353894696</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="17">
         <v>43783</v>
       </c>
@@ -6247,7 +6259,7 @@
         <v>0.15788242362575003</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="17">
         <v>43796</v>
       </c>
@@ -6267,7 +6279,7 @@
         <v>9.0877086190604778E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="17">
         <v>43812</v>
       </c>
@@ -6287,7 +6299,7 @@
         <v>0.16187879640256084</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="17">
         <v>43826</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>0.65773659997162304</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="17">
         <v>43846</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>0.63836303726558208</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>43861</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>8.9601630403647534E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="17">
         <v>43874</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>0.1586646225184786</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="17">
         <v>43889</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>0.10608936959273521</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="19">
         <v>43902</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>0.14283181442311285</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="20">
         <v>43921</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>0.41484438782572985</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="19">
         <v>43937</v>
       </c>
@@ -6447,7 +6459,7 @@
         <v>0.19590808291204032</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="20">
         <v>43951</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>0.47213712963722682</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="21">
         <v>43965</v>
       </c>
@@ -6487,7 +6499,7 @@
         <v>0.44518263655731583</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="22">
         <v>43980</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>0.3338211129981582</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="21">
         <v>43997</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>0.32227990287897151</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="22">
         <v>44011</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>0.15215120801972248</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="22">
         <v>44027</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>0.1921718723482326</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="22">
         <v>44040</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>0.14740163261501205</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="22">
         <v>44060</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>2.8328389156927312</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="22">
         <v>44069</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>0.33378713638779983</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="22">
         <v>44088</v>
       </c>
@@ -6647,7 +6659,7 @@
         <v>0.11770203687099411</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="22">
         <v>44104</v>
       </c>
@@ -6674,18 +6686,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F5E64E-5ECB-42BD-9B3B-700416925470}">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26">
         <v>40486</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>40499</v>
       </c>
@@ -6717,8 +6729,11 @@
       <c r="C3">
         <v>9.8199999999999996E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>40513</v>
       </c>
@@ -6728,8 +6743,12 @@
       <c r="C4">
         <v>8.0699999999999994E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="34">
+        <f>AVERAGE(B2:B108)</f>
+        <v>0.90833177570093449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>40528</v>
       </c>
@@ -6740,7 +6759,7 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>40555</v>
       </c>
@@ -6751,7 +6770,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>40570</v>
       </c>
@@ -6762,7 +6781,7 @@
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>40583</v>
       </c>
@@ -6773,7 +6792,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>40597</v>
       </c>
@@ -6784,7 +6803,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>40611</v>
       </c>
@@ -6795,7 +6814,7 @@
         <v>1.9400999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>40625</v>
       </c>
@@ -6806,7 +6825,7 @@
         <v>0.13819999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>40652</v>
       </c>
@@ -6817,7 +6836,7 @@
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>40667</v>
       </c>
@@ -6828,7 +6847,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>40681</v>
       </c>
@@ -6839,7 +6858,7 @@
         <v>0.75460000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>40696</v>
       </c>
@@ -6850,7 +6869,7 @@
         <v>0.3196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>40709</v>
       </c>
@@ -6861,7 +6880,7 @@
         <v>1.1105</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>40753</v>
       </c>
@@ -6872,7 +6891,7 @@
         <v>0.29160000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
         <v>40737</v>
       </c>
@@ -6883,7 +6902,7 @@
         <v>0.1229</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>40750</v>
       </c>
@@ -6894,7 +6913,7 @@
         <v>0.24929999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
         <v>40765</v>
       </c>
@@ -6905,7 +6924,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
         <v>40733</v>
       </c>
@@ -6916,7 +6935,7 @@
         <v>0.4269</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>40807</v>
       </c>
@@ -6927,7 +6946,7 @@
         <v>0.35370000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
         <v>40821</v>
       </c>
@@ -6938,7 +6957,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>40835</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="26">
         <v>40849</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
         <v>40863</v>
       </c>
@@ -6971,7 +6990,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>40877</v>
       </c>
@@ -6982,7 +7001,7 @@
         <v>0.1163</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="26">
         <v>40891</v>
       </c>
@@ -6993,7 +7012,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="26">
         <v>40919</v>
       </c>
@@ -7004,7 +7023,7 @@
         <v>0.1013</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
         <v>40933</v>
       </c>
@@ -7015,7 +7034,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
         <v>40947</v>
       </c>
@@ -7026,7 +7045,7 @@
         <v>0.39050000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="26">
         <v>40961</v>
       </c>
@@ -7037,7 +7056,7 @@
         <v>0.2334</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="26">
         <v>40975</v>
       </c>
@@ -7048,7 +7067,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="26">
         <v>40991</v>
       </c>
@@ -7059,7 +7078,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="26">
         <v>41003</v>
       </c>
@@ -7070,7 +7089,7 @@
         <v>0.16769999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
         <v>41017</v>
       </c>
@@ -7081,7 +7100,7 @@
         <v>0.30459999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
         <v>41031</v>
       </c>
@@ -7092,7 +7111,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="26">
         <v>41045</v>
       </c>
@@ -7103,7 +7122,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="26">
         <v>41058</v>
       </c>
@@ -7114,7 +7133,7 @@
         <v>0.56569999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="26">
         <v>41073</v>
       </c>
@@ -7125,7 +7144,7 @@
         <v>0.95030000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="26">
         <v>41088</v>
       </c>
@@ -7136,7 +7155,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="26">
         <v>41101</v>
       </c>
@@ -7147,7 +7166,7 @@
         <v>0.16850000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
         <v>41114</v>
       </c>
@@ -7158,7 +7177,7 @@
         <v>0.19409999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="26">
         <v>41129</v>
       </c>
@@ -7169,7 +7188,7 @@
         <v>0.1353</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="26">
         <v>41143</v>
       </c>
@@ -7180,7 +7199,7 @@
         <v>0.2959</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="26">
         <v>41162</v>
       </c>
@@ -7191,7 +7210,7 @@
         <v>0.36549999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="26">
         <v>41171</v>
       </c>
@@ -7202,7 +7221,7 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="26">
         <v>41185</v>
       </c>
@@ -7213,7 +7232,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="26">
         <v>41199</v>
       </c>
@@ -7224,7 +7243,7 @@
         <v>0.16589999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="26">
         <v>41214</v>
       </c>
@@ -7235,7 +7254,7 @@
         <v>0.15809999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="26">
         <v>41227</v>
       </c>
@@ -7246,7 +7265,7 @@
         <v>0.28539999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="26">
         <v>41241</v>
       </c>
@@ -7257,7 +7276,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="26">
         <v>41257</v>
       </c>
@@ -7268,7 +7287,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
         <v>41270</v>
       </c>
@@ -7279,7 +7298,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="26">
         <v>41284</v>
       </c>
@@ -7290,7 +7309,7 @@
         <v>0.1114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="26">
         <v>41297</v>
       </c>
@@ -7301,7 +7320,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="26">
         <v>41311</v>
       </c>
@@ -7312,7 +7331,7 @@
         <v>0.17030000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="26">
         <v>41325</v>
       </c>
@@ -7323,7 +7342,7 @@
         <v>0.1416</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="26">
         <v>41339</v>
       </c>
@@ -7334,7 +7353,7 @@
         <v>0.19089999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="26">
         <v>41353</v>
       </c>
@@ -7345,7 +7364,7 @@
         <v>9.74E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="26">
         <v>41367</v>
       </c>
@@ -7356,7 +7375,7 @@
         <v>0.2641</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="26">
         <v>41379</v>
       </c>
@@ -7367,7 +7386,7 @@
         <v>0.20380000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="26">
         <v>41395</v>
       </c>
@@ -7378,7 +7397,7 @@
         <v>0.30740000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="26">
         <v>41409</v>
       </c>
@@ -7389,7 +7408,7 @@
         <v>0.63170000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="26">
         <v>41423</v>
       </c>
@@ -7400,7 +7419,7 @@
         <v>0.38440000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="26">
         <v>41437</v>
       </c>
@@ -7411,7 +7430,7 @@
         <v>0.34189999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="26">
         <v>41449</v>
       </c>
@@ -7422,7 +7441,7 @@
         <v>0.17710000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="26">
         <v>41465</v>
       </c>
@@ -7433,7 +7452,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="26">
         <v>41479</v>
       </c>
@@ -7444,7 +7463,7 @@
         <v>0.12740000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="26">
         <v>41500</v>
       </c>
@@ -7455,7 +7474,7 @@
         <v>0.2165</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="26">
         <v>41512</v>
       </c>
@@ -7466,7 +7485,7 @@
         <v>0.51119999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="26">
         <v>41527</v>
       </c>
@@ -7477,7 +7496,7 @@
         <v>0.60740000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="26">
         <v>41541</v>
       </c>
@@ -7488,7 +7507,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="26">
         <v>41555</v>
       </c>
@@ -7499,7 +7518,7 @@
         <v>0.23069999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="26">
         <v>41572</v>
       </c>
@@ -7510,7 +7529,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="26">
         <v>41582</v>
       </c>
@@ -7521,7 +7540,7 @@
         <v>0.2419</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="26">
         <v>41596</v>
       </c>
@@ -7532,7 +7551,7 @@
         <v>0.16070000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="26">
         <v>41617</v>
       </c>
@@ -7543,7 +7562,7 @@
         <v>0.21579999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="26">
         <v>41631</v>
       </c>
@@ -7554,7 +7573,7 @@
         <v>0.15679999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="26">
         <v>41647</v>
       </c>
@@ -7565,7 +7584,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="26">
         <v>41661</v>
       </c>
@@ -7576,7 +7595,7 @@
         <v>0.15210000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="26">
         <v>41675</v>
       </c>
@@ -7587,7 +7606,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="26">
         <v>41689</v>
       </c>
@@ -7598,7 +7617,7 @@
         <v>0.14080000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="26">
         <v>41703</v>
       </c>
@@ -7609,7 +7628,7 @@
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="26">
         <v>41717</v>
       </c>
@@ -7620,7 +7639,7 @@
         <v>0.1128</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="26">
         <v>41731</v>
       </c>
@@ -7631,7 +7650,7 @@
         <v>0.17269999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="26">
         <v>41745</v>
       </c>
@@ -7642,7 +7661,7 @@
         <v>0.2742</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="26">
         <v>41759</v>
       </c>
@@ -7653,7 +7672,7 @@
         <v>0.31530000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="26">
         <v>41787</v>
       </c>
@@ -7664,7 +7683,7 @@
         <v>0.34720000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="26">
         <v>41801</v>
       </c>
@@ -7675,7 +7694,7 @@
         <v>0.21590000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="26">
         <v>41815</v>
       </c>
@@ -7686,7 +7705,7 @@
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="26">
         <v>41829</v>
       </c>
@@ -7697,7 +7716,7 @@
         <v>8.8099999999999998E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="26">
         <v>41843</v>
       </c>
@@ -7708,7 +7727,7 @@
         <v>0.23960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="26">
         <v>41856</v>
       </c>
@@ -7719,7 +7738,7 @@
         <v>0.18609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="26">
         <v>41871</v>
       </c>
@@ -7730,7 +7749,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="26">
         <v>41919</v>
       </c>
@@ -7741,7 +7760,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="26">
         <v>41934</v>
       </c>
@@ -7752,7 +7771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="26">
         <v>41950</v>
       </c>
@@ -7763,7 +7782,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="26">
         <v>41968</v>
       </c>
@@ -7774,7 +7793,7 @@
         <v>0.15210000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="26">
         <v>41982</v>
       </c>
@@ -7785,7 +7804,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="26">
         <v>42017</v>
       </c>
@@ -7796,7 +7815,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="26">
         <v>42033</v>
       </c>
@@ -7807,7 +7826,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="26">
         <v>42048</v>
       </c>
@@ -7818,7 +7837,7 @@
         <v>0.2006</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="26">
         <v>42062</v>
       </c>
@@ -7829,7 +7848,7 @@
         <v>0.15260000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="26">
         <v>42072</v>
       </c>
@@ -7840,7 +7859,7 @@
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="26">
         <v>42093</v>
       </c>
@@ -7851,7 +7870,7 @@
         <v>0.1244</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="26">
         <v>42110</v>
       </c>
@@ -7862,7 +7881,7 @@
         <v>0.2152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="26">
         <v>42124</v>
       </c>
@@ -7873,18 +7892,25 @@
         <v>0.66310000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="26">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="33">
         <v>42136</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>7.5552999999999999</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>1.1178999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="2">
+        <f>LN(B109/$F$4)</f>
+        <v>2.1183948791174791</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="26">
         <v>42150</v>
       </c>
@@ -7894,8 +7920,12 @@
       <c r="C110">
         <v>0.32629999999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f t="shared" ref="D110:D173" si="0">LN(B110/$F$4)</f>
+        <v>0.55059130570881809</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="26">
         <v>42164</v>
       </c>
@@ -7905,8 +7935,12 @@
       <c r="C111">
         <v>0.50870000000000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="0"/>
+        <v>0.61696113317437051</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="26">
         <v>42178</v>
       </c>
@@ -7916,8 +7950,12 @@
       <c r="C112">
         <v>0.30909999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="0"/>
+        <v>-0.17160315936529899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="26">
         <v>42191</v>
       </c>
@@ -7927,8 +7965,12 @@
       <c r="C113">
         <v>0.20580000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="0"/>
+        <v>0.42717445233417872</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="26">
         <v>42212</v>
       </c>
@@ -7938,8 +7980,12 @@
       <c r="C114">
         <v>0.15140000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="0"/>
+        <v>-3.6700337954397186E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="26">
         <v>42228</v>
       </c>
@@ -7949,8 +7995,12 @@
       <c r="C115">
         <v>0.16900000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="0"/>
+        <v>0.16669723132997658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="26">
         <v>42240</v>
       </c>
@@ -7960,8 +8010,12 @@
       <c r="C116">
         <v>0.2838</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <f t="shared" si="0"/>
+        <v>1.6019530899747027E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="26">
         <v>42255</v>
       </c>
@@ -7971,8 +8025,12 @@
       <c r="C117">
         <v>0.1986</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f t="shared" si="0"/>
+        <v>6.2175055807878583E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="26">
         <v>42268</v>
       </c>
@@ -7982,8 +8040,12 @@
       <c r="C118">
         <v>0.81110000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f>LN(B118/$F$4)</f>
+        <v>1.2632884064542502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="26">
         <v>42282</v>
       </c>
@@ -7993,8 +8055,12 @@
       <c r="C119">
         <v>0.48010000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="0"/>
+        <v>0.75107154311877944</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="26">
         <v>42296</v>
       </c>
@@ -8004,8 +8070,12 @@
       <c r="C120">
         <v>0.12559999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="0"/>
+        <v>-0.114698920348161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="26">
         <v>42310</v>
       </c>
@@ -8015,8 +8085,12 @@
       <c r="C121">
         <v>8.7900000000000006E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="0"/>
+        <v>-1.0439139032032514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="26">
         <v>42324</v>
       </c>
@@ -8026,8 +8100,12 @@
       <c r="C122">
         <v>0.1598</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="0"/>
+        <v>-0.18251068586543664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="26">
         <v>42346</v>
       </c>
@@ -8037,8 +8115,12 @@
       <c r="C123">
         <v>8.3099999999999993E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="0"/>
+        <v>-0.84571940761455344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="26">
         <v>42359</v>
       </c>
@@ -8048,8 +8130,12 @@
       <c r="C124">
         <v>0.22439999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f t="shared" si="0"/>
+        <v>3.1180296526672802E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="26">
         <v>42373</v>
       </c>
@@ -8059,8 +8145,12 @@
       <c r="C125">
         <v>0.14729999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f t="shared" si="0"/>
+        <v>-0.44737543122510104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="26">
         <v>42388</v>
       </c>
@@ -8070,8 +8160,12 @@
       <c r="C126">
         <v>0.1996</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f t="shared" si="0"/>
+        <v>-0.2785478740623788</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="26">
         <v>42401</v>
       </c>
@@ -8081,8 +8175,12 @@
       <c r="C127">
         <v>0.25130000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f t="shared" si="0"/>
+        <v>-8.8258147619247274E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="26">
         <v>42419</v>
       </c>
@@ -8092,8 +8190,12 @@
       <c r="C128">
         <v>3.85E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f t="shared" si="0"/>
+        <v>-0.8203951877503326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="26">
         <v>42429</v>
       </c>
@@ -8103,8 +8205,12 @@
       <c r="C129">
         <v>0.25459999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <f t="shared" si="0"/>
+        <v>0.25630672750297301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="26">
         <v>42443</v>
       </c>
@@ -8114,8 +8220,12 @@
       <c r="C130">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <f t="shared" si="0"/>
+        <v>-0.2562528117924403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="26">
         <v>42457</v>
       </c>
@@ -8125,8 +8235,12 @@
       <c r="C131">
         <v>0.1973</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <f t="shared" si="0"/>
+        <v>0.33429595879976365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="26">
         <v>42471</v>
       </c>
@@ -8136,8 +8250,12 @@
       <c r="C132">
         <v>0.3251</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <f t="shared" si="0"/>
+        <v>0.23163754481618851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="26">
         <v>42488</v>
       </c>
@@ -8147,8 +8265,12 @@
       <c r="C133">
         <v>0.44350000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <f t="shared" si="0"/>
+        <v>0.53845678460785917</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="26">
         <v>42499</v>
       </c>
@@ -8158,8 +8280,12 @@
       <c r="C134">
         <v>0.55089999999999995</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <f t="shared" si="0"/>
+        <v>0.82552824852107254</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>42513</v>
       </c>
@@ -8169,8 +8295,12 @@
       <c r="C135">
         <v>0.58809999999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <f t="shared" si="0"/>
+        <v>0.72486089577958823</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>42527</v>
       </c>
@@ -8180,8 +8310,12 @@
       <c r="C136">
         <v>0.22850000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f t="shared" si="0"/>
+        <v>-0.53647110544088106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>42541</v>
       </c>
@@ -8191,8 +8325,12 @@
       <c r="C137">
         <v>0.25030000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <f t="shared" si="0"/>
+        <v>-0.28614025978172725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>42556</v>
       </c>
@@ -8202,8 +8340,12 @@
       <c r="C138">
         <v>0.14860000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f t="shared" si="0"/>
+        <v>0.12531595267881179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>42571</v>
       </c>
@@ -8213,8 +8355,12 @@
       <c r="C139">
         <v>0.25530000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f t="shared" si="0"/>
+        <v>0.26690049580152103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>42584</v>
       </c>
@@ -8224,8 +8370,12 @@
       <c r="C140">
         <v>0.1956</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f t="shared" si="0"/>
+        <v>0.22489053126959416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>42611</v>
       </c>
@@ -8235,8 +8385,12 @@
       <c r="C141">
         <v>7.1499999999999994E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f t="shared" si="0"/>
+        <v>-0.63221436093665784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>42627</v>
       </c>
@@ -8246,8 +8400,12 @@
       <c r="C142">
         <v>0.15679999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f t="shared" si="0"/>
+        <v>-0.52393703432390815</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>42639</v>
       </c>
@@ -8257,8 +8415,12 @@
       <c r="C143">
         <v>0.1285</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f t="shared" si="0"/>
+        <v>-0.16781997045543293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>42655</v>
       </c>
@@ -8268,8 +8430,12 @@
       <c r="C144">
         <v>0.15260000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <f t="shared" si="0"/>
+        <v>0.21108011347113126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="26">
         <v>42668</v>
       </c>
@@ -8279,8 +8445,12 @@
       <c r="C145">
         <v>0.1789</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <f t="shared" si="0"/>
+        <v>-0.18475951279372527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="26">
         <v>42689</v>
       </c>
@@ -8290,8 +8460,12 @@
       <c r="C146">
         <v>9.3700000000000006E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f t="shared" si="0"/>
+        <v>-0.22972307845798992</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="26">
         <v>42703</v>
       </c>
@@ -8301,8 +8475,12 @@
       <c r="C147">
         <v>0.1381</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <f t="shared" si="0"/>
+        <v>-0.54137770143291652</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="26">
         <v>42716</v>
       </c>
@@ -8312,8 +8490,12 @@
       <c r="C148">
         <v>0.18179999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <f t="shared" si="0"/>
+        <v>-0.27651358100395501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="26">
         <v>42732</v>
       </c>
@@ -8323,8 +8505,12 @@
       <c r="C149">
         <v>0.1663</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <f t="shared" si="0"/>
+        <v>-0.20239524040762497</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="26">
         <v>42745</v>
       </c>
@@ -8334,8 +8520,12 @@
       <c r="C150">
         <v>0.1018</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <f t="shared" si="0"/>
+        <v>-0.60080884352386754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="26">
         <v>42759</v>
       </c>
@@ -8345,8 +8535,12 @@
       <c r="C151">
         <v>8.2400000000000001E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <f t="shared" si="0"/>
+        <v>-0.89190972272443392</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="26">
         <v>42776</v>
       </c>
@@ -8356,8 +8550,12 @@
       <c r="C152">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f t="shared" si="0"/>
+        <v>-7.8445935353012322E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="26">
         <v>42787</v>
       </c>
@@ -8367,8 +8565,12 @@
       <c r="C153">
         <v>0.1454</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <f t="shared" si="0"/>
+        <v>-0.45723966280575484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="26">
         <v>42800</v>
       </c>
@@ -8378,8 +8580,12 @@
       <c r="C154">
         <v>0.28449999999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <f t="shared" si="0"/>
+        <v>0.31832866559811707</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="26">
         <v>42814</v>
       </c>
@@ -8389,8 +8595,12 @@
       <c r="C155">
         <v>0.1178</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <f t="shared" si="0"/>
+        <v>-0.17448274250692153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="26">
         <v>42828</v>
       </c>
@@ -8400,8 +8610,12 @@
       <c r="C156">
         <v>0.2908</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <f t="shared" si="0"/>
+        <v>0.36342083805315023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="26">
         <v>42843</v>
       </c>
@@ -8411,8 +8625,12 @@
       <c r="C157">
         <v>0.21010000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <f t="shared" si="0"/>
+        <v>0.53729952589570329</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="26">
         <v>42860</v>
       </c>
@@ -8422,8 +8640,12 @@
       <c r="C158">
         <v>0.56030000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <f t="shared" si="0"/>
+        <v>0.77959589296011322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="26">
         <v>42871</v>
       </c>
@@ -8433,8 +8655,12 @@
       <c r="C159">
         <v>0.35630000000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <f t="shared" si="0"/>
+        <v>0.99979676370672321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="26">
         <v>42903</v>
       </c>
@@ -8444,8 +8670,12 @@
       <c r="C160">
         <v>0.4637</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <f t="shared" si="0"/>
+        <v>0.98572265373476364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="26">
         <v>42905</v>
       </c>
@@ -8455,8 +8685,12 @@
       <c r="C161">
         <v>0.34189999999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <f t="shared" si="0"/>
+        <v>0.57992882803313928</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="26">
         <v>42921</v>
       </c>
@@ -8466,8 +8700,12 @@
       <c r="C162">
         <v>0.6663</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <f t="shared" si="0"/>
+        <v>0.78598729893025077</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="26">
         <v>42937</v>
       </c>
@@ -8477,8 +8715,12 @@
       <c r="C163">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <f t="shared" si="0"/>
+        <v>0.53845678460785917</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="26">
         <v>42961</v>
       </c>
@@ -8488,8 +8730,12 @@
       <c r="C164">
         <v>0.23949999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <f t="shared" si="0"/>
+        <v>0.23364408856466551</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="26">
         <v>42976</v>
       </c>
@@ -8499,19 +8745,30 @@
       <c r="C165">
         <v>0.40110000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="26">
+      <c r="D165">
+        <f t="shared" si="0"/>
+        <v>0.81432677365861883</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="33">
         <v>42993</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>8.4199000000000002</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>1.4149</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2267435270781806</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="26">
         <v>43026</v>
       </c>
@@ -8521,8 +8778,12 @@
       <c r="C167">
         <v>0.38379999999999997</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <f t="shared" si="0"/>
+        <v>1.1472119255078699</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="26">
         <v>43038</v>
       </c>
@@ -8532,8 +8793,12 @@
       <c r="C168">
         <v>0.26390000000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <f t="shared" si="0"/>
+        <v>-0.44840920113108657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="26">
         <v>43053</v>
       </c>
@@ -8543,8 +8808,12 @@
       <c r="C169">
         <v>0.23769999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <f t="shared" si="0"/>
+        <v>-0.513028171404735</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="26">
         <v>43069</v>
       </c>
@@ -8554,8 +8823,12 @@
       <c r="C170">
         <v>0.12709999999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <f t="shared" si="0"/>
+        <v>-1.2981809574381229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="26">
         <v>43082</v>
       </c>
@@ -8565,8 +8838,12 @@
       <c r="C171">
         <v>0.30409999999999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <f t="shared" si="0"/>
+        <v>-0.59082074610583235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="26">
         <v>43098</v>
       </c>
@@ -8576,8 +8853,12 @@
       <c r="C172">
         <v>0.18679999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <f t="shared" si="0"/>
+        <v>-0.72256482815625922</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="26">
         <v>43123</v>
       </c>
@@ -8587,8 +8868,12 @@
       <c r="C173">
         <v>8.6900000000000005E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <f t="shared" si="0"/>
+        <v>-1.1594714620992426</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="26">
         <v>43131</v>
       </c>
@@ -8598,8 +8883,12 @@
       <c r="C174">
         <v>0.1086</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <f t="shared" ref="D174:D237" si="1">LN(B174/$F$4)</f>
+        <v>-0.35515406907293184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="26">
         <v>43147</v>
       </c>
@@ -8609,8 +8898,12 @@
       <c r="C175">
         <v>5.9700000000000003E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <f t="shared" si="1"/>
+        <v>-1.2098599545120559</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="26">
         <v>43159</v>
       </c>
@@ -8620,8 +8913,12 @@
       <c r="C176">
         <v>0.1019</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <f t="shared" si="1"/>
+        <v>-0.64011789625454141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="26">
         <v>43173</v>
       </c>
@@ -8631,8 +8928,12 @@
       <c r="C177">
         <v>4.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <f t="shared" si="1"/>
+        <v>-0.8234004492157958</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="26">
         <v>43187</v>
       </c>
@@ -8642,8 +8943,12 @@
       <c r="C178">
         <v>0.1066</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <f t="shared" si="1"/>
+        <v>-0.40770443465053363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="26">
         <v>43203</v>
       </c>
@@ -8653,8 +8958,12 @@
       <c r="C179">
         <v>0.21260000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <f t="shared" si="1"/>
+        <v>-6.920087720896112E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="26">
         <v>43216</v>
       </c>
@@ -8664,8 +8973,12 @@
       <c r="C180">
         <v>0.1542</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <f t="shared" si="1"/>
+        <v>-0.16573880425160847</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="26">
         <v>43236</v>
       </c>
@@ -8675,8 +8988,12 @@
       <c r="C181">
         <v>0.17150000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <f t="shared" si="1"/>
+        <v>-0.26841754140870677</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="26">
         <v>43250</v>
       </c>
@@ -8686,8 +9003,12 @@
       <c r="C182">
         <v>0.1099</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <f t="shared" si="1"/>
+        <v>-0.72939079322665901</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="26">
         <v>43266</v>
       </c>
@@ -8697,8 +9018,12 @@
       <c r="C183">
         <v>9.4399999999999998E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <f t="shared" si="1"/>
+        <v>-0.38479767390508923</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="26">
         <v>43280</v>
       </c>
@@ -8708,8 +9033,12 @@
       <c r="C184">
         <v>0.1249</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <f t="shared" si="1"/>
+        <v>-0.51413212735861868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="26">
         <v>43297</v>
       </c>
@@ -8719,8 +9048,12 @@
       <c r="C185">
         <v>0.13289999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <f t="shared" si="1"/>
+        <v>-0.47673277278996884</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="26">
         <v>43311</v>
       </c>
@@ -8730,8 +9063,12 @@
       <c r="C186">
         <v>9.3100000000000002E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <f t="shared" si="1"/>
+        <v>-0.58290148080213178</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="26">
         <v>43326</v>
       </c>
@@ -8741,8 +9078,12 @@
       <c r="C187">
         <v>7.17E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <f t="shared" si="1"/>
+        <v>-1.0631725884064729</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="26">
         <v>43340</v>
       </c>
@@ -8752,8 +9093,12 @@
       <c r="C188">
         <v>9.98E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <f t="shared" si="1"/>
+        <v>-0.46107308795666929</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="26">
         <v>43360</v>
       </c>
@@ -8763,8 +9108,12 @@
       <c r="C189">
         <v>0.15939999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <f t="shared" si="1"/>
+        <v>-0.50351126209357444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="26">
         <v>43371</v>
       </c>
@@ -8774,8 +9123,12 @@
       <c r="C190">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <f t="shared" si="1"/>
+        <v>-0.54478873373397907</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="26">
         <v>43385</v>
       </c>
@@ -8785,8 +9138,12 @@
       <c r="C191">
         <v>0.11940000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <f t="shared" si="1"/>
+        <v>-0.6691422829585959</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="26">
         <v>43403</v>
       </c>
@@ -8796,8 +9153,12 @@
       <c r="C192">
         <v>9.6299999999999997E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <f t="shared" si="1"/>
+        <v>-0.80304224859546092</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="26">
         <v>43419</v>
       </c>
@@ -8807,8 +9168,12 @@
       <c r="C193">
         <v>8.7099999999999997E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <f t="shared" si="1"/>
+        <v>-0.87038637293186982</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="26">
         <v>43434</v>
       </c>
@@ -8818,8 +9183,12 @@
       <c r="C194">
         <v>0.1628</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f t="shared" si="1"/>
+        <v>-0.67712764966019823</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="26">
         <v>43447</v>
       </c>
@@ -8829,8 +9198,12 @@
       <c r="C195">
         <v>6.6799999999999998E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <f t="shared" si="1"/>
+        <v>-1.1591205233344548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="26">
         <v>43465</v>
       </c>
@@ -8840,8 +9213,12 @@
       <c r="C196">
         <v>0.25269999999999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <f t="shared" si="1"/>
+        <v>-0.3856068009012516</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="26">
         <v>43483</v>
       </c>
@@ -8851,8 +9228,12 @@
       <c r="C197">
         <v>7.6799999999999993E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <f t="shared" si="1"/>
+        <v>-1.0844362761563286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="26">
         <v>43496</v>
       </c>
@@ -8862,8 +9243,12 @@
       <c r="C198">
         <v>0.68510000000000004</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <f t="shared" si="1"/>
+        <v>-2.8511029220523846E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="26">
         <v>43511</v>
       </c>
@@ -8873,8 +9258,12 @@
       <c r="C199">
         <v>0.1716</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <f t="shared" si="1"/>
+        <v>-0.45394076234026154</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="26">
         <v>43521</v>
       </c>
@@ -8884,8 +9273,12 @@
       <c r="C200">
         <v>0.1474</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <f t="shared" si="1"/>
+        <v>-0.46685092071586831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="26">
         <v>43538</v>
       </c>
@@ -8895,8 +9288,12 @@
       <c r="C201">
         <v>6.2199999999999998E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <f t="shared" si="1"/>
+        <v>-0.7485224128221557</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="26">
         <v>43553</v>
       </c>
@@ -8906,8 +9303,12 @@
       <c r="C202">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <f t="shared" si="1"/>
+        <v>-0.32712715137909726</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="26">
         <v>43570</v>
       </c>
@@ -8917,8 +9318,12 @@
       <c r="C203">
         <v>0.23710000000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <f t="shared" si="1"/>
+        <v>-7.7374825461853966E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="26">
         <v>43584</v>
       </c>
@@ -8928,8 +9333,12 @@
       <c r="C204">
         <v>0.2382</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <f t="shared" si="1"/>
+        <v>0.15658194418286267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="26">
         <v>43602</v>
       </c>
@@ -8939,8 +9348,12 @@
       <c r="C205">
         <v>0.37159999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <f t="shared" si="1"/>
+        <v>0.1627756576767948</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="26">
         <v>43614</v>
       </c>
@@ -8950,8 +9363,12 @@
       <c r="C206">
         <v>0.12039999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <f t="shared" si="1"/>
+        <v>-0.3300325743266741</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="26">
         <v>43634</v>
       </c>
@@ -8961,8 +9378,12 @@
       <c r="C207">
         <v>0.13880000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <f t="shared" si="1"/>
+        <v>-8.178563311362988E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="26">
         <v>43646</v>
       </c>
@@ -8972,8 +9393,12 @@
       <c r="C208">
         <v>0.2132</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <f t="shared" si="1"/>
+        <v>0.22568149672806595</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="26">
         <v>43665</v>
       </c>
@@ -8983,8 +9408,12 @@
       <c r="C209">
         <v>0.15279999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <f t="shared" si="1"/>
+        <v>-8.0949662443341328E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="26">
         <v>43677</v>
       </c>
@@ -8994,8 +9423,12 @@
       <c r="C210">
         <v>0.16209999999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <f t="shared" si="1"/>
+        <v>-0.34019119639621959</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="26">
         <v>43692</v>
       </c>
@@ -9005,8 +9438,12 @@
       <c r="C211">
         <v>6.3299999999999995E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <f t="shared" si="1"/>
+        <v>-0.56589061015586062</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="26">
         <v>43704</v>
       </c>
@@ -9016,8 +9453,12 @@
       <c r="C212">
         <v>0.26379999999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <f t="shared" si="1"/>
+        <v>-0.2957125293229157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="26">
         <v>43724</v>
       </c>
@@ -9027,8 +9468,12 @@
       <c r="C213">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <f t="shared" si="1"/>
+        <v>-0.15745718341988635</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="26">
         <v>43735</v>
       </c>
@@ -9038,8 +9483,12 @@
       <c r="C214">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <f t="shared" si="1"/>
+        <v>-0.7003641181760667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="26">
         <v>43753</v>
       </c>
@@ -9049,8 +9498,12 @@
       <c r="C215">
         <v>0.1062</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <f t="shared" si="1"/>
+        <v>-0.5870512743277454</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="26">
         <v>43767</v>
       </c>
@@ -9060,8 +9513,12 @@
       <c r="C216">
         <v>0.1111</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <f t="shared" si="1"/>
+        <v>-0.60241623788241216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="26">
         <v>43783</v>
       </c>
@@ -9071,8 +9528,12 @@
       <c r="C217">
         <v>0.15790000000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <f t="shared" si="1"/>
+        <v>-0.81889593709469122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="26">
         <v>43796</v>
       </c>
@@ -9082,8 +9543,12 @@
       <c r="C218">
         <v>9.0899999999999995E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <f t="shared" si="1"/>
+        <v>-1.2683872939593461</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="26">
         <v>43812</v>
       </c>
@@ -9093,8 +9558,12 @@
       <c r="C219">
         <v>0.16189999999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <f t="shared" si="1"/>
+        <v>-0.80451790060942407</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="26">
         <v>43826</v>
       </c>
@@ -9104,8 +9573,12 @@
       <c r="C220">
         <v>0.65769999999999995</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <f t="shared" si="1"/>
+        <v>0.29924967135551506</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="27">
         <v>43846</v>
       </c>
@@ -9115,8 +9588,12 @@
       <c r="C221" s="28">
         <v>2.0186811718221849</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <f t="shared" si="1"/>
+        <v>0.19805729362309316</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="27">
         <v>43861</v>
       </c>
@@ -9126,8 +9603,12 @@
       <c r="C222" s="28">
         <v>0.28334523414011847</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <f t="shared" si="1"/>
+        <v>-1.0628235138299751</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="27">
         <v>43874</v>
       </c>
@@ -9137,8 +9618,12 @@
       <c r="C223" s="28">
         <v>0.33548404344445315</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <f t="shared" si="1"/>
+        <v>-1.5551068874880751</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="27">
         <v>43889</v>
       </c>
@@ -9148,8 +9633,12 @@
       <c r="C224" s="28">
         <v>0.33548404344445315</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <f t="shared" si="1"/>
+        <v>-1.5551068874880751</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="27">
         <v>43902</v>
       </c>
@@ -9159,8 +9648,12 @@
       <c r="C225" s="28">
         <v>0.45167385591152548</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <f t="shared" si="1"/>
+        <v>-0.73548205609194939</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="27">
         <v>43921</v>
       </c>
@@ -9170,8 +9663,12 @@
       <c r="C226" s="28">
         <v>1.3118531400675328</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <f t="shared" si="1"/>
+        <v>-6.2397452751519401E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="27">
         <v>43937</v>
       </c>
@@ -9181,8 +9678,12 @@
       <c r="C227" s="28">
         <v>0.61951575403915971</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <f t="shared" si="1"/>
+        <v>3.1892727718621311E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="30">
         <v>43951</v>
       </c>
@@ -9192,8 +9693,12 @@
       <c r="C228" s="28">
         <v>1.4930286975878244</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <f t="shared" si="1"/>
+        <v>0.44065153860397765</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="31">
         <v>43965</v>
       </c>
@@ -9203,8 +9708,12 @@
       <c r="C229" s="28">
         <v>1.4077911062800588</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <f t="shared" si="1"/>
+        <v>0.76604849873728387</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="30">
         <v>43980</v>
       </c>
@@ -9214,8 +9723,12 @@
       <c r="C230" s="28">
         <v>1.0556350481266199</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <f t="shared" si="1"/>
+        <v>0.42608860654532238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="30">
         <v>43997</v>
       </c>
@@ -9225,8 +9738,12 @@
       <c r="C231" s="28">
         <v>1.0191385371954067</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <f t="shared" si="1"/>
+        <v>0.23461573259582211</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="30">
         <v>44011</v>
       </c>
@@ -9236,8 +9753,12 @@
       <c r="C232" s="28">
         <v>0.48114436608840039</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <f t="shared" si="1"/>
+        <v>-0.1432431629220694</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="30">
         <v>44027</v>
       </c>
@@ -9247,8 +9768,12 @@
       <c r="C233" s="28">
         <v>0.60770081883954552</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <f t="shared" si="1"/>
+        <v>-9.3884184858241931E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="30">
         <v>44040</v>
       </c>
@@ -9258,22 +9783,30 @@
       <c r="C234" s="28">
         <v>0.46612488989079942</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="30">
+      <c r="D234">
+        <f t="shared" si="1"/>
+        <v>-6.0015671292392388E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="35">
         <v>44060</v>
       </c>
-      <c r="B235" s="29">
+      <c r="B235" s="36">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C235" s="29">
+      <c r="C235" s="36">
         <v>1.26</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92032101834538116</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="30">
         <v>44069</v>
       </c>
@@ -9283,8 +9816,12 @@
       <c r="C236" s="29">
         <v>1.0555276046507154</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <f t="shared" si="1"/>
+        <v>0.26604461217442932</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="30">
         <v>44088</v>
       </c>
@@ -9294,8 +9831,12 @@
       <c r="C237" s="29">
         <v>0.37220652175345958</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <f t="shared" si="1"/>
+        <v>-0.58049695532698131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="30">
         <v>44104</v>
       </c>
@@ -9305,8 +9846,12 @@
       <c r="C238" s="29">
         <v>0.52087265913514569</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <f t="shared" ref="D238:D268" si="2">LN(B238/$F$4)</f>
+        <v>-0.43451839060662306</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="30">
         <v>44119</v>
       </c>
@@ -9316,8 +9861,12 @@
       <c r="C239" s="29">
         <v>1.0955076063359297</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <f t="shared" si="2"/>
+        <v>-0.30357416425055039</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="30">
         <v>44134</v>
       </c>
@@ -9327,8 +9876,12 @@
       <c r="C240" s="29">
         <v>0.67291783336365341</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <f t="shared" si="2"/>
+        <v>-0.44787030410618744</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="30">
         <v>44151</v>
       </c>
@@ -9338,8 +9891,12 @@
       <c r="C241" s="29">
         <v>0.31396262879662323</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <f t="shared" si="2"/>
+        <v>-0.66527444783560519</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="30">
         <v>44167</v>
       </c>
@@ -9349,8 +9906,12 @@
       <c r="C242" s="29">
         <v>0.34079019911604708</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <f t="shared" si="2"/>
+        <v>-1.0268691894016795</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="30">
         <v>44179</v>
       </c>
@@ -9360,8 +9921,12 @@
       <c r="C243" s="29">
         <v>0.60713598254341317</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <f t="shared" si="2"/>
+        <v>-0.73745029124705808</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="30">
         <v>44188</v>
       </c>
@@ -9371,8 +9936,12 @@
       <c r="C244" s="29">
         <v>0.50171212265032006</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <f t="shared" si="2"/>
+        <v>-0.94734741406799816</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="30">
         <v>44211</v>
       </c>
@@ -9382,8 +9951,12 @@
       <c r="C245" s="29">
         <v>0.38351191045812133</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <f t="shared" si="2"/>
+        <v>-0.76056845903159565</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="30">
         <v>44224</v>
       </c>
@@ -9393,8 +9966,12 @@
       <c r="C246" s="29">
         <v>0.47738537662585723</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <f t="shared" si="2"/>
+        <v>-0.55566985050055873</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="30">
         <v>44243</v>
       </c>
@@ -9404,8 +9981,12 @@
       <c r="C247" s="29">
         <v>0.34559354776293566</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <f t="shared" si="2"/>
+        <v>-0.7093483166417367</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="30">
         <v>44253</v>
       </c>
@@ -9415,8 +9996,12 @@
       <c r="C248" s="29">
         <v>0.29029158679953349</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <f t="shared" si="2"/>
+        <v>-1.083940205952223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="30">
         <v>44271</v>
       </c>
@@ -9426,8 +10011,12 @@
       <c r="C249" s="29">
         <v>1.267029701776881</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <f t="shared" si="2"/>
+        <v>3.8118436968202385E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="32">
         <v>44285</v>
       </c>
@@ -9437,8 +10026,12 @@
       <c r="C250" s="29">
         <v>1.1211967407268166</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <f t="shared" si="2"/>
+        <v>-0.11264568229583394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="30">
         <v>44301</v>
       </c>
@@ -9448,8 +10041,12 @@
       <c r="C251" s="29">
         <v>0.54394606597376416</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <f t="shared" si="2"/>
+        <v>-0.27932739859191358</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="32">
         <v>44316</v>
       </c>
@@ -9459,8 +10056,12 @@
       <c r="C252" s="29">
         <v>1.6962450305323586</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <f t="shared" si="2"/>
+        <v>0.66228876622663047</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="30">
         <v>44334</v>
       </c>
@@ -9470,8 +10071,12 @@
       <c r="C253" s="29">
         <v>1.9904724282612705</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <f t="shared" si="2"/>
+        <v>0.86762459920888413</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="30">
         <v>44347</v>
       </c>
@@ -9481,8 +10086,12 @@
       <c r="C254" s="29">
         <v>1.4362924258209857</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <f t="shared" si="2"/>
+        <v>0.78192133127900976</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="30">
         <v>44363</v>
       </c>
@@ -9492,8 +10101,12 @@
       <c r="C255" s="29">
         <v>4.0132365873638101</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <f t="shared" si="2"/>
+        <v>0.92447642863001822</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="30">
         <v>44377</v>
       </c>
@@ -9503,8 +10116,12 @@
       <c r="C256" s="29">
         <v>1.8444428498382053</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <f t="shared" si="2"/>
+        <v>0.47597885446091637</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="30">
         <v>44392</v>
       </c>
@@ -9514,8 +10131,12 @@
       <c r="C257" s="29">
         <v>0.44481424398754243</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <f t="shared" si="2"/>
+        <v>-0.13500614638437589</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="30">
         <v>44406</v>
       </c>
@@ -9525,8 +10146,12 @@
       <c r="C258" s="29">
         <v>0.96255068326487192</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <f t="shared" si="2"/>
+        <v>0.13477741816491862</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="30">
         <v>44425</v>
       </c>
@@ -9536,8 +10161,12 @@
       <c r="C259" s="29">
         <v>0.63124493837821771</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <f t="shared" si="2"/>
+        <v>2.8789387425086167E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="30">
         <v>44438</v>
       </c>
@@ -9547,8 +10176,12 @@
       <c r="C260" s="29">
         <v>1.0240075405737417</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <f t="shared" si="2"/>
+        <v>0.10253537347780281</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="30">
         <v>44455</v>
       </c>
@@ -9558,8 +10191,12 @@
       <c r="C261" s="29">
         <v>0.60428203529451496</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <f t="shared" si="2"/>
+        <v>-0.32421990999797023</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="30">
         <v>44469</v>
       </c>
@@ -9569,8 +10206,12 @@
       <c r="C262" s="29">
         <v>0.67791193465123445</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <f t="shared" si="2"/>
+        <v>-0.21982399891566345</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="30">
         <v>44483</v>
       </c>
@@ -9580,8 +10221,12 @@
       <c r="C263" s="29">
         <v>1.554354923051338</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <f t="shared" si="2"/>
+        <v>0.51550464355229009</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="30">
         <v>44496</v>
       </c>
@@ -9591,8 +10236,12 @@
       <c r="C264" s="29">
         <v>1.2802369910450084</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <f t="shared" si="2"/>
+        <v>-1.2259864398914728E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="30">
         <v>44515</v>
       </c>
@@ -9602,8 +10251,12 @@
       <c r="C265" s="29">
         <v>0.8183580699380707</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <f t="shared" si="2"/>
+        <v>-0.11925857892181291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="30">
         <v>44529</v>
       </c>
@@ -9613,8 +10266,12 @@
       <c r="C266" s="29">
         <v>0.52903884817558</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <f t="shared" si="2"/>
+        <v>-0.39753757436603332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="30">
         <v>44546</v>
       </c>
@@ -9624,8 +10281,12 @@
       <c r="C267" s="29">
         <v>2.3604333176028853</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <f t="shared" si="2"/>
+        <v>0.26400734928730202</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="30">
         <v>44559</v>
       </c>
@@ -9634,6 +10295,10 @@
       </c>
       <c r="C268" s="29">
         <v>0.28769229888277509</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="2"/>
+        <v>-0.79277588277776334</v>
       </c>
     </row>
   </sheetData>
@@ -9650,12 +10315,12 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9672,7 +10337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42748</v>
       </c>
@@ -9686,7 +10351,7 @@
         <v>5.456109638</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42776</v>
       </c>
@@ -9700,7 +10365,7 @@
         <v>7.652800214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42804</v>
       </c>
@@ -9714,7 +10379,7 @@
         <v>1.90811519</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42832</v>
       </c>
@@ -9728,7 +10393,7 @@
         <v>3.8148371089999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42867</v>
       </c>
@@ -9742,7 +10407,7 @@
         <v>5.140687647</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42899</v>
       </c>
@@ -9756,7 +10421,7 @@
         <v>7.0206230979999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42923</v>
       </c>
@@ -9770,7 +10435,7 @@
         <v>4.2230005039999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42958</v>
       </c>
@@ -9784,7 +10449,7 @@
         <v>4.216356555</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42988</v>
       </c>
@@ -9798,7 +10463,7 @@
         <v>5.3723351790000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43012</v>
       </c>
@@ -9812,7 +10477,7 @@
         <v>3.3986645229999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43046</v>
       </c>
@@ -9826,7 +10491,7 @@
         <v>4.2721712350000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43077</v>
       </c>
@@ -9840,7 +10505,7 @@
         <v>5.8804574169999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43120</v>
       </c>
@@ -9854,7 +10519,7 @@
         <v>4.9281550349999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43146</v>
       </c>
@@ -9868,7 +10533,7 @@
         <v>5.4482511980000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43172</v>
       </c>
@@ -9882,7 +10547,7 @@
         <v>5.7241165169999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43200</v>
       </c>
@@ -9896,7 +10561,7 @@
         <v>13.47164566</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43228</v>
       </c>
@@ -9910,7 +10575,7 @@
         <v>4.5746554899999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43263</v>
       </c>
@@ -9924,7 +10589,7 @@
         <v>5.3282850269999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43292</v>
       </c>
@@ -9938,7 +10603,7 @@
         <v>9.409797588</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43319</v>
       </c>
@@ -9952,7 +10617,7 @@
         <v>9.0341196739999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43349</v>
       </c>
@@ -9966,7 +10631,7 @@
         <v>5.0712837390000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43376</v>
       </c>
@@ -9980,7 +10645,7 @@
         <v>4.7701134119999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43405</v>
       </c>
@@ -9994,7 +10659,7 @@
         <v>4.8860938359999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43438</v>
       </c>
@@ -10008,7 +10673,7 @@
         <v>4.0672777550000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43468</v>
       </c>
@@ -10022,7 +10687,7 @@
         <v>4.2436466910000004</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43501</v>
       </c>
@@ -10036,7 +10701,7 @@
         <v>4.6489553570000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43530</v>
       </c>
@@ -10050,7 +10715,7 @@
         <v>7.2604282979999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43558</v>
       </c>
@@ -10064,7 +10729,7 @@
         <v>8.0095111390000007</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43586</v>
       </c>
@@ -10078,7 +10743,7 @@
         <v>12.317417860000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43623</v>
       </c>
@@ -10092,7 +10757,7 @@
         <v>7.1019401240000004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43651</v>
       </c>
@@ -10106,7 +10771,7 @@
         <v>5.8455680030000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43683</v>
       </c>
@@ -10120,7 +10785,7 @@
         <v>6.3315068490000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43713</v>
       </c>
@@ -10134,7 +10799,7 @@
         <v>5.6547836870000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43741</v>
       </c>
@@ -10148,7 +10813,7 @@
         <v>7.3440677020000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43774</v>
       </c>
@@ -10162,7 +10827,7 @@
         <v>5.1522638770000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43802</v>
       </c>
@@ -10176,7 +10841,7 @@
         <v>4.0180063779999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43839</v>
       </c>
@@ -10190,7 +10855,7 @@
         <v>5.8926324570000004</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43865</v>
       </c>
@@ -10204,7 +10869,7 @@
         <v>4.7369710659999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43894</v>
       </c>
@@ -10218,7 +10883,7 @@
         <v>4.5678473019999997</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43989</v>
       </c>
@@ -10232,7 +10897,7 @@
         <v>8.9560851429999992</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43957</v>
       </c>
@@ -10246,7 +10911,7 @@
         <v>5.982281607</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43986</v>
       </c>
@@ -10260,7 +10925,7 @@
         <v>7.8970892370000003</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44013</v>
       </c>
@@ -10274,7 +10939,7 @@
         <v>7.7615223389999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44048</v>
       </c>
@@ -10288,7 +10953,7 @@
         <v>6.6374370130000004</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="24">
         <v>44078</v>
       </c>
@@ -10302,7 +10967,7 @@
         <v>9.4348014490000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42748</v>
       </c>
@@ -10316,7 +10981,7 @@
         <v>4.0249312903708203</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42776</v>
       </c>
@@ -10330,7 +10995,7 @@
         <v>4.1882705487110901</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42804</v>
       </c>
@@ -10344,7 +11009,7 @@
         <v>2.5976656166111498</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42832</v>
       </c>
@@ -10358,7 +11023,7 @@
         <v>4.5407438504376598</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42867</v>
       </c>
@@ -10372,7 +11037,7 @@
         <v>2.20597227087696</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42899</v>
       </c>
@@ -10386,7 +11051,7 @@
         <v>3.2585568532285998</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42923</v>
       </c>
@@ -10400,7 +11065,7 @@
         <v>3.20875060837575</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42958</v>
       </c>
@@ -10414,7 +11079,7 @@
         <v>3.1336126758174099</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42988</v>
       </c>
@@ -10428,7 +11093,7 @@
         <v>5.9499951232843804</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43012</v>
       </c>
@@ -10442,7 +11107,7 @@
         <v>3.8164606586566401</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43046</v>
       </c>
@@ -10456,7 +11121,7 @@
         <v>7.5411228913510699</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43077</v>
       </c>
@@ -10470,7 +11135,7 @@
         <v>4.0993752498083698</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43120</v>
       </c>
@@ -10484,7 +11149,7 @@
         <v>1.88356962862484</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43146</v>
       </c>
@@ -10498,7 +11163,7 @@
         <v>5.1874540595778802</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43172</v>
       </c>
@@ -10512,7 +11177,7 @@
         <v>6.8834456367527599</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43200</v>
       </c>
@@ -10526,7 +11191,7 @@
         <v>14.2738028634221</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43228</v>
       </c>
@@ -10540,7 +11205,7 @@
         <v>8.7800712054795191</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43263</v>
       </c>
@@ -10554,7 +11219,7 @@
         <v>9.2681786542472295</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43292</v>
       </c>
@@ -10568,7 +11233,7 @@
         <v>13.847324422063</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43319</v>
       </c>
@@ -10582,7 +11247,7 @@
         <v>11.0422807562889</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43349</v>
       </c>
@@ -10596,7 +11261,7 @@
         <v>3.0263210710597299</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43376</v>
       </c>
@@ -10610,7 +11275,7 @@
         <v>4.2287285256960097</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43405</v>
       </c>
@@ -10624,7 +11289,7 @@
         <v>5.8045075913939597</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43438</v>
       </c>
@@ -10638,7 +11303,7 @@
         <v>5.7092829794805597</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43468</v>
       </c>
@@ -10652,7 +11317,7 @@
         <v>4.1347276141814797</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43501</v>
       </c>
@@ -10666,7 +11331,7 @@
         <v>6.7615676184102798</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43530</v>
       </c>
@@ -10680,7 +11345,7 @@
         <v>6.5296832761990498</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43558</v>
       </c>
@@ -10694,7 +11359,7 @@
         <v>7.3291017191915602</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43586</v>
       </c>
@@ -10708,7 +11373,7 @@
         <v>9.3074268874582806</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43623</v>
       </c>
@@ -10722,7 +11387,7 @@
         <v>4.9671225062806901</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43651</v>
       </c>
@@ -10736,7 +11401,7 @@
         <v>6.4302750334472503</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43683</v>
       </c>
@@ -10750,7 +11415,7 @@
         <v>4.9509297810855299</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43713</v>
       </c>
@@ -10764,7 +11429,7 @@
         <v>2.5513080427824701</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43741</v>
       </c>
@@ -10778,7 +11443,7 @@
         <v>3.8257648491901599</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43774</v>
       </c>
@@ -10792,7 +11457,7 @@
         <v>5.1084859867672803</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43802</v>
       </c>
@@ -10806,7 +11471,7 @@
         <v>4.5539185090820498</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43839</v>
       </c>
@@ -10820,7 +11485,7 @@
         <v>3.30155800639369</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43865</v>
       </c>
@@ -10834,7 +11499,7 @@
         <v>3.8754846730677901</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43894</v>
       </c>
@@ -10848,7 +11513,7 @@
         <v>2.5164847522609102</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43989</v>
       </c>
@@ -10862,7 +11527,7 @@
         <v>4.0785792406651398</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43957</v>
       </c>
@@ -10876,7 +11541,7 @@
         <v>5.1485386589187296</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43986</v>
       </c>
@@ -10890,7 +11555,7 @@
         <v>10.5576630012777</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44013</v>
       </c>
@@ -10904,7 +11569,7 @@
         <v>4.5101301663140401</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44048</v>
       </c>
@@ -10918,7 +11583,7 @@
         <v>1.6471008990931399</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44078</v>
       </c>
@@ -10945,12 +11610,12 @@
       <selection activeCell="D47" sqref="D47:E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -10967,7 +11632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42749</v>
       </c>
@@ -10984,7 +11649,7 @@
         <v>134.81280340000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42777</v>
       </c>
@@ -11001,7 +11666,7 @@
         <v>122.60241929999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42805</v>
       </c>
@@ -11018,7 +11683,7 @@
         <v>47.220693089999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42833</v>
       </c>
@@ -11035,7 +11700,7 @@
         <v>70.801034659999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42869</v>
       </c>
@@ -11052,7 +11717,7 @@
         <v>74.160079809999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42900</v>
       </c>
@@ -11069,7 +11734,7 @@
         <v>101.7080917</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42924</v>
       </c>
@@ -11086,7 +11751,7 @@
         <v>57.791632919999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42958</v>
       </c>
@@ -11103,7 +11768,7 @@
         <v>55.438846810000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42988</v>
       </c>
@@ -11120,7 +11785,7 @@
         <v>53.970711489999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43011</v>
       </c>
@@ -11137,7 +11802,7 @@
         <v>65.190743589999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43043</v>
       </c>
@@ -11154,7 +11819,7 @@
         <v>97.832053830000007</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43076</v>
       </c>
@@ -11171,7 +11836,7 @@
         <v>43.875056549999996</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43123</v>
       </c>
@@ -11188,7 +11853,7 @@
         <v>80.007586540000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43146</v>
       </c>
@@ -11205,7 +11870,7 @@
         <v>50.946465340000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43172</v>
       </c>
@@ -11222,7 +11887,7 @@
         <v>33.848775170000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43202</v>
       </c>
@@ -11239,7 +11904,7 @@
         <v>45.217368159999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43221</v>
       </c>
@@ -11256,7 +11921,7 @@
         <v>166.73870700000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43266</v>
       </c>
@@ -11273,7 +11938,7 @@
         <v>79.543186390000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43282</v>
       </c>
@@ -11290,7 +11955,7 @@
         <v>99.375622399999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43313</v>
       </c>
@@ -11307,7 +11972,7 @@
         <v>46.239391490000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43352</v>
       </c>
@@ -11324,7 +11989,7 @@
         <v>32.531033909999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43377</v>
       </c>
@@ -11341,7 +12006,7 @@
         <v>53.979765020000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43410</v>
       </c>
@@ -11358,7 +12023,7 @@
         <v>30.44298036</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43439</v>
       </c>
@@ -11375,7 +12040,7 @@
         <v>39.932649560000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43480</v>
       </c>
@@ -11392,7 +12057,7 @@
         <v>40.668835020000003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43503</v>
       </c>
@@ -11409,7 +12074,7 @@
         <v>55.657160990000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -11426,7 +12091,7 @@
         <v>40.513543769999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43560</v>
       </c>
@@ -11443,7 +12108,7 @@
         <v>74.472004929999997</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43588</v>
       </c>
@@ -11460,7 +12125,7 @@
         <v>105.55415790000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43631</v>
       </c>
@@ -11477,7 +12142,7 @@
         <v>59.904876250000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43657</v>
       </c>
@@ -11488,7 +12153,7 @@
         <v>264.57212961769085</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43684</v>
       </c>
@@ -11499,7 +12164,7 @@
         <v>362.9776482995432</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43719</v>
       </c>
@@ -11510,7 +12175,7 @@
         <v>285.52292503474723</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43747</v>
       </c>
@@ -11521,7 +12186,7 @@
         <v>476.36648212149186</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43775</v>
       </c>
@@ -11532,7 +12197,7 @@
         <v>386.73099465080577</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43809</v>
       </c>
@@ -11543,7 +12208,7 @@
         <v>458.06056665101943</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43844</v>
       </c>
@@ -11554,7 +12219,7 @@
         <v>634.01981864443303</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43866</v>
       </c>
@@ -11565,7 +12230,7 @@
         <v>698.45995186012226</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43895</v>
       </c>
@@ -11576,7 +12241,7 @@
         <v>458.87822084470173</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43936</v>
       </c>
@@ -11587,7 +12252,7 @@
         <v>454.74326942431685</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43958</v>
       </c>
@@ -11598,7 +12263,7 @@
         <v>150.99511793677314</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43993</v>
       </c>
@@ -11609,7 +12274,7 @@
         <v>494.09937562358192</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44021</v>
       </c>
@@ -11620,7 +12285,7 @@
         <v>579.23864429102036</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44054</v>
       </c>
@@ -11631,7 +12296,7 @@
         <v>685.22561122902414</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="24">
         <v>44082</v>
       </c>
@@ -11642,7 +12307,7 @@
         <v>568.55739774564029</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42749</v>
       </c>
@@ -11659,7 +12324,7 @@
         <v>85.38938915</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42777</v>
       </c>
@@ -11676,7 +12341,7 @@
         <v>183.99544520000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42805</v>
       </c>
@@ -11693,7 +12358,7 @@
         <v>100.75900059999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42833</v>
       </c>
@@ -11710,7 +12375,7 @@
         <v>143.95922970000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42869</v>
       </c>
@@ -11727,7 +12392,7 @@
         <v>168.0605626</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42900</v>
       </c>
@@ -11744,7 +12409,7 @@
         <v>78.577439870000006</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42924</v>
       </c>
@@ -11761,7 +12426,7 @@
         <v>63.907262279999998</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42958</v>
       </c>
@@ -11778,7 +12443,7 @@
         <v>36.117856009999997</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42988</v>
       </c>
@@ -11795,7 +12460,7 @@
         <v>43.954248880000002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43011</v>
       </c>
@@ -11812,7 +12477,7 @@
         <v>54.611197339999997</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43043</v>
       </c>
@@ -11829,7 +12494,7 @@
         <v>54.744799999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43076</v>
       </c>
@@ -11846,7 +12511,7 @@
         <v>25.364065610000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43123</v>
       </c>
@@ -11863,7 +12528,7 @@
         <v>73.716322590000004</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43146</v>
       </c>
@@ -11880,7 +12545,7 @@
         <v>48.171131469999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43172</v>
       </c>
@@ -11897,7 +12562,7 @@
         <v>18.372663849999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43202</v>
       </c>
@@ -11914,7 +12579,7 @@
         <v>78.364184179999995</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43221</v>
       </c>
@@ -11931,7 +12596,7 @@
         <v>56.564268759999997</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43266</v>
       </c>
@@ -11948,7 +12613,7 @@
         <v>73.681720110000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43282</v>
       </c>
@@ -11965,7 +12630,7 @@
         <v>157.19214980000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43313</v>
       </c>
@@ -11982,7 +12647,7 @@
         <v>49.060116620000002</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43352</v>
       </c>
@@ -11999,7 +12664,7 @@
         <v>16.48209623</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43377</v>
       </c>
@@ -12016,7 +12681,7 @@
         <v>94.275715899999994</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43410</v>
       </c>
@@ -12033,7 +12698,7 @@
         <v>70.893924220000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43439</v>
       </c>
@@ -12050,7 +12715,7 @@
         <v>56.580796339999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43480</v>
       </c>
@@ -12067,7 +12732,7 @@
         <v>72.016389399999994</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43503</v>
       </c>
@@ -12084,7 +12749,7 @@
         <v>58.406583789999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43531</v>
       </c>
@@ -12101,7 +12766,7 @@
         <v>44.255142769999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43560</v>
       </c>
@@ -12118,7 +12783,7 @@
         <v>78.025817439999997</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43588</v>
       </c>
@@ -12135,7 +12800,7 @@
         <v>79.264172919999993</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43631</v>
       </c>
@@ -12152,7 +12817,7 @@
         <v>54.50093605</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43657</v>
       </c>
@@ -12163,7 +12828,7 @@
         <v>159.23779057858295</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43684</v>
       </c>
@@ -12174,7 +12839,7 @@
         <v>235.34858844853784</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43719</v>
       </c>
@@ -12185,7 +12850,7 @@
         <v>160.23559076710967</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43747</v>
       </c>
@@ -12196,7 +12861,7 @@
         <v>460.87499918200598</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43775</v>
       </c>
@@ -12207,7 +12872,7 @@
         <v>468.88395572892733</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43809</v>
       </c>
@@ -12218,7 +12883,7 @@
         <v>359.98585128467374</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43844</v>
       </c>
@@ -12229,7 +12894,7 @@
         <v>592.74150542616746</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43866</v>
       </c>
@@ -12240,7 +12905,7 @@
         <v>692.10323455166417</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43895</v>
       </c>
@@ -12251,7 +12916,7 @@
         <v>288.69056226906628</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43936</v>
       </c>
@@ -12262,7 +12927,7 @@
         <v>361.14412243830975</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43958</v>
       </c>
@@ -12273,7 +12938,7 @@
         <v>120.93320578521131</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43993</v>
       </c>
@@ -12284,7 +12949,7 @@
         <v>326.47836170175987</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44021</v>
       </c>
@@ -12295,7 +12960,7 @@
         <v>469.00883481104051</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44054</v>
       </c>
@@ -12306,7 +12971,7 @@
         <v>623.54696771037413</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44082</v>
       </c>
@@ -12331,13 +12996,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -12378,7 +13043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>42745</v>
       </c>
@@ -12419,7 +13084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42759</v>
       </c>
@@ -12460,7 +13125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42776</v>
       </c>
@@ -12501,7 +13166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42787</v>
       </c>
@@ -12542,7 +13207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42800</v>
       </c>
@@ -12583,7 +13248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42814</v>
       </c>
@@ -12624,7 +13289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42828</v>
       </c>
@@ -12665,7 +13330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42843</v>
       </c>
@@ -12706,7 +13371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42860</v>
       </c>
@@ -12747,7 +13412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42871</v>
       </c>
@@ -12788,7 +13453,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -12823,7 +13488,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42903</v>
       </c>
@@ -12864,7 +13529,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42905</v>
       </c>
@@ -12905,7 +13570,7 @@
         <v>42914</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42921</v>
       </c>
@@ -12946,7 +13611,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42937</v>
       </c>
@@ -12987,7 +13652,7 @@
         <v>42943</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42961</v>
       </c>
@@ -13028,7 +13693,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42976</v>
       </c>
@@ -13069,7 +13734,7 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -13104,7 +13769,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>42993</v>
       </c>
@@ -13145,7 +13810,7 @@
         <v>42996</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>43008</v>
       </c>
@@ -13180,7 +13845,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>43026</v>
       </c>
@@ -13221,7 +13886,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>43038</v>
       </c>
@@ -13262,7 +13927,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>43053</v>
       </c>
@@ -13303,7 +13968,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>43069</v>
       </c>
@@ -13344,7 +14009,7 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>43082</v>
       </c>
@@ -13364,7 +14029,7 @@
         <v>6.8658112919160991E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>43098</v>
       </c>
@@ -13384,7 +14049,7 @@
         <v>3.6016809160480612E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>43123</v>
       </c>
@@ -13404,7 +14069,7 @@
         <v>2.9164130039451466E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>43131</v>
       </c>
@@ -13424,7 +14089,7 @@
         <v>0.98308482434576316</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>43147</v>
       </c>
@@ -13444,7 +14109,7 @@
         <v>5.664997651673187E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>43159</v>
       </c>
@@ -13464,7 +14129,7 @@
         <v>1.9787275447822696E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>43173</v>
       </c>
@@ -13484,7 +14149,7 @@
         <v>5.2082207119803742E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>43187</v>
       </c>
@@ -13504,7 +14169,7 @@
         <v>0.11123784088185319</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>43203</v>
       </c>
@@ -13524,7 +14189,7 @@
         <v>9.5440684411799481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>43216</v>
       </c>
@@ -13544,7 +14209,7 @@
         <v>0.24057346497778229</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>43236</v>
       </c>
@@ -13564,7 +14229,7 @@
         <v>0.22866082081339759</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>43250</v>
       </c>
@@ -13584,7 +14249,7 @@
         <v>5.4795787907546745E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>43266</v>
       </c>
@@ -13604,7 +14269,7 @@
         <v>6.7177350632632499E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>43280</v>
       </c>
@@ -13624,7 +14289,7 @@
         <v>0.15536723459758001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43297</v>
       </c>
@@ -13644,7 +14309,7 @@
         <v>4.8668342623808911E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>43311</v>
       </c>
@@ -13664,7 +14329,7 @@
         <v>7.179798652634059E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>43326</v>
       </c>
@@ -13684,7 +14349,7 @@
         <v>0.13549358582523982</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>43340</v>
       </c>
@@ -13704,7 +14369,7 @@
         <v>6.7979953351116909E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>43360</v>
       </c>
@@ -13724,7 +14389,7 @@
         <v>0.1249551191789272</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>43371</v>
       </c>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/24 data summary/datasummaryLTER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A20CD7-EC1B-4499-99AB-6CB72EDC8D85}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE999DE7-C9C6-455A-AEED-9AFE4E5CE107}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
   <sheets>
     <sheet name="canopy" sheetId="1" r:id="rId1"/>
     <sheet name="leaf" sheetId="2" r:id="rId2"/>
     <sheet name="leaf_PB_2010" sheetId="6" r:id="rId3"/>
-    <sheet name="shrimp" sheetId="3" r:id="rId4"/>
-    <sheet name="chlorophyll" sheetId="4" r:id="rId5"/>
-    <sheet name="leafInputate" sheetId="5" r:id="rId6"/>
+    <sheet name="macroinvertebrate_QPB" sheetId="7" r:id="rId4"/>
+    <sheet name="shrimp" sheetId="3" r:id="rId5"/>
+    <sheet name="chlorophyll" sheetId="4" r:id="rId6"/>
+    <sheet name="leafInputate" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="26">
   <si>
     <t>canopy</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>Hurrican Irma</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -6688,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F5E64E-5ECB-42BD-9B3B-700416925470}">
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10308,11 +10315,788 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258EEB2-C7A0-4768-A442-8C1B9CEF861A}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B2">
+        <v>2858.5459999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B3">
+        <v>1257.367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B4">
+        <v>982.31799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B5">
+        <v>589.39099999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B6">
+        <v>1060.904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B7">
+        <v>383.10399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B8">
+        <v>2131.6309999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B9">
+        <v>677.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B10">
+        <v>1170.4875</v>
+      </c>
+      <c r="C10">
+        <v>527.59198939999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B11">
+        <v>1337.7</v>
+      </c>
+      <c r="C11">
+        <v>711.59391359999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B12">
+        <v>893.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B13">
+        <v>697.44600000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B14">
+        <v>1198.4280000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B15">
+        <v>199.06299999999999</v>
+      </c>
+      <c r="C15">
+        <v>112.88800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B16">
+        <v>629.03800000000001</v>
+      </c>
+      <c r="C16">
+        <v>262.44099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B17">
+        <v>7.9630000000000001</v>
+      </c>
+      <c r="C17">
+        <v>7.9630000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B18">
+        <v>127.4</v>
+      </c>
+      <c r="C18">
+        <v>85.263999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B19">
+        <v>23.888000000000002</v>
+      </c>
+      <c r="C19">
+        <v>23.888000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B20">
+        <v>350.35</v>
+      </c>
+      <c r="C20">
+        <v>159.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B21">
+        <v>55.738</v>
+      </c>
+      <c r="C21">
+        <v>23.888000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B22">
+        <v>7.9630000000000001</v>
+      </c>
+      <c r="C22">
+        <v>7.9630000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B23">
+        <v>199.06299999999999</v>
+      </c>
+      <c r="C23">
+        <v>75.117999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B24">
+        <v>135.363</v>
+      </c>
+      <c r="C24">
+        <v>76.234999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B25">
+        <v>119.438</v>
+      </c>
+      <c r="C25">
+        <v>20.039000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B26">
+        <v>199.06299999999999</v>
+      </c>
+      <c r="C26">
+        <v>96.759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B27">
+        <v>143.32499999999999</v>
+      </c>
+      <c r="C27">
+        <v>20.559000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B28">
+        <v>772.36300000000006</v>
+      </c>
+      <c r="C28">
+        <v>241.64599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B29">
+        <v>788.28800000000001</v>
+      </c>
+      <c r="C29">
+        <v>366.24599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B30">
+        <v>310.53800000000001</v>
+      </c>
+      <c r="C30">
+        <v>71.662999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B31">
+        <v>167.21299999999999</v>
+      </c>
+      <c r="C31">
+        <v>104.32599999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B32">
+        <v>2492.2629999999999</v>
+      </c>
+      <c r="C32">
+        <v>1646.0309999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B33">
+        <v>2340.9749999999999</v>
+      </c>
+      <c r="C33">
+        <v>1016.085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B34">
+        <v>8464.1380000000008</v>
+      </c>
+      <c r="C34">
+        <v>7407.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B35">
+        <v>9467.4130000000005</v>
+      </c>
+      <c r="C35">
+        <v>8333.634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B36">
+        <v>629.03800000000001</v>
+      </c>
+      <c r="C36">
+        <v>411.25900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B37">
+        <v>2118.0250000000001</v>
+      </c>
+      <c r="C37">
+        <v>1570.442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B38">
+        <v>732.55</v>
+      </c>
+      <c r="C38">
+        <v>190.8470548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B39">
+        <v>1194.375</v>
+      </c>
+      <c r="C39">
+        <v>807.61891189999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B40">
+        <v>859.95</v>
+      </c>
+      <c r="C40">
+        <v>286.42873400000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B41">
+        <v>1263.383333</v>
+      </c>
+      <c r="C41">
+        <v>512.68717670000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B42">
+        <v>2059.6333330000002</v>
+      </c>
+      <c r="C42">
+        <v>1225.6434730000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B43">
+        <v>886.4916667</v>
+      </c>
+      <c r="C43">
+        <v>507.89960239999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B44">
+        <v>663.54166669999995</v>
+      </c>
+      <c r="C44">
+        <v>456.62467229999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B45">
+        <v>414.05</v>
+      </c>
+      <c r="C45">
+        <v>130.8049164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B46">
+        <v>1788.9083330000001</v>
+      </c>
+      <c r="C46">
+        <v>506.3660319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B47">
+        <v>732.55</v>
+      </c>
+      <c r="C47">
+        <v>174.8368706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B48">
+        <v>966.1166667</v>
+      </c>
+      <c r="C48">
+        <v>410.98980230000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B49">
+        <v>132.70833329999999</v>
+      </c>
+      <c r="C49">
+        <v>42.267135410000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B50">
+        <v>1661.508333</v>
+      </c>
+      <c r="C50">
+        <v>683.86910360000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B51">
+        <v>2266.6583329999999</v>
+      </c>
+      <c r="C51">
+        <v>1220.0785860000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B52">
+        <v>7256.4916670000002</v>
+      </c>
+      <c r="C52">
+        <v>4097.1482859999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B53">
+        <v>233.56666670000001</v>
+      </c>
+      <c r="C53">
+        <v>92.187885739999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B54">
+        <v>923.65</v>
+      </c>
+      <c r="C54">
+        <v>325.63931789999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B55">
+        <v>6104.5833329999996</v>
+      </c>
+      <c r="C55">
+        <v>3694.7250789999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B56">
+        <v>833.40833329999998</v>
+      </c>
+      <c r="C56">
+        <v>432.6926666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B57">
+        <v>228.2583333</v>
+      </c>
+      <c r="C57">
+        <v>50.303285870000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B58">
+        <v>498.98333330000003</v>
+      </c>
+      <c r="C58">
+        <v>162.9580522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B59">
+        <v>376.89166669999997</v>
+      </c>
+      <c r="C59">
+        <v>90.987992259999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B60">
+        <v>1072.2833330000001</v>
+      </c>
+      <c r="C60">
+        <v>562.50302139999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B61">
+        <v>849.33333330000005</v>
+      </c>
+      <c r="C61">
+        <v>270.46466240000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B62">
+        <v>716.625</v>
+      </c>
+      <c r="C62">
+        <v>166.66814170000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B63">
+        <v>339.73333330000003</v>
+      </c>
+      <c r="C63">
+        <v>112.6567912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B64">
+        <v>514.90833329999998</v>
+      </c>
+      <c r="C64">
+        <v>196.23609569999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B65">
+        <v>1343.008333</v>
+      </c>
+      <c r="C65">
+        <v>156.77118010000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B66">
+        <v>1380.166667</v>
+      </c>
+      <c r="C66">
+        <v>318.57076990000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B67">
+        <v>424.66666670000001</v>
+      </c>
+      <c r="C67">
+        <v>88.825406150000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B68">
+        <v>833.40833329999998</v>
+      </c>
+      <c r="C68">
+        <v>237.1227212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B69">
+        <v>690.08333330000005</v>
+      </c>
+      <c r="C69">
+        <v>176.50507669999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B70">
+        <v>514.90833329999998</v>
+      </c>
+      <c r="C70">
+        <v>145.35531090000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B71">
+        <v>997.96666670000002</v>
+      </c>
+      <c r="C71">
+        <v>240.2746587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B72">
+        <v>132.70833329999999</v>
+      </c>
+      <c r="C72">
+        <v>37.158333329999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0DCC2-9B1A-4289-981D-F0A202653F1A}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11602,7 +12386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA04F0F5-94F6-4ECC-910C-1083F193A778}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -12987,7 +13771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7289E8-F4B8-47AA-89EC-66E1F7D8BAC0}">
   <dimension ref="A1:M45"/>
   <sheetViews>

--- a/data/all_variables.xlsx
+++ b/data/all_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/24 data summary/datasummaryLTER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE999DE7-C9C6-455A-AEED-9AFE4E5CE107}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{62CF1239-0F74-40B1-9794-A6ECA891A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A19B67-1721-4A43-B799-DBFA2C7CFA19}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B94305EB-91EC-464A-A930-49588A5C8259}"/>
   </bookViews>
@@ -10316,10 +10316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258EEB2-C7A0-4768-A442-8C1B9CEF861A}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11084,6 +11084,413 @@
       </c>
       <c r="C72">
         <v>37.158333329999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B73">
+        <v>392.81666666666666</v>
+      </c>
+      <c r="C73">
+        <v>154.21599120857883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B74">
+        <v>493.67500000000018</v>
+      </c>
+      <c r="C74">
+        <v>202.56700156985093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B75">
+        <v>546.75833333333344</v>
+      </c>
+      <c r="C75">
+        <v>263.85140117645346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B76">
+        <v>997.96666666666681</v>
+      </c>
+      <c r="C76">
+        <v>238.43813756285806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B77">
+        <v>403.43333333333339</v>
+      </c>
+      <c r="C77">
+        <v>133.2804003261962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B78">
+        <v>461.82500000000005</v>
+      </c>
+      <c r="C78">
+        <v>165.65062216907009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B79">
+        <v>334.42500000000001</v>
+      </c>
+      <c r="C79">
+        <v>108.39923412244822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B80">
+        <v>838.7166666666667</v>
+      </c>
+      <c r="C80">
+        <v>299.98424477147319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B81">
+        <v>1438.5583333333334</v>
+      </c>
+      <c r="C81">
+        <v>338.21207582833466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B82">
+        <v>1751.75</v>
+      </c>
+      <c r="C82">
+        <v>686.61193539970827</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B83">
+        <v>1157.2166666666667</v>
+      </c>
+      <c r="C83">
+        <v>361.99564124140755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B84">
+        <v>339.73333333333335</v>
+      </c>
+      <c r="C84">
+        <v>115.9114422498679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B85">
+        <v>360.9666666666667</v>
+      </c>
+      <c r="C85">
+        <v>81.686264315230972</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B86">
+        <v>1374.8583333333333</v>
+      </c>
+      <c r="C86">
+        <v>413.1029446793836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B87">
+        <v>658.23333333333346</v>
+      </c>
+      <c r="C87">
+        <v>265.28923607598136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B88">
+        <v>1183.7583333333332</v>
+      </c>
+      <c r="C88">
+        <v>275.75757058712145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B89">
+        <v>881.18333333333339</v>
+      </c>
+      <c r="C89">
+        <v>215.80839675765893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B90">
+        <v>854.64166666666654</v>
+      </c>
+      <c r="C90">
+        <v>256.70608239017469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B91">
+        <v>844.02500000000009</v>
+      </c>
+      <c r="C91">
+        <v>255.6942121460711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B92">
+        <v>1008.5833333333334</v>
+      </c>
+      <c r="C92">
+        <v>369.11815603016748</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B93">
+        <v>1204.9916666666666</v>
+      </c>
+      <c r="C93">
+        <v>402.48930118631046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B94">
+        <v>398.125</v>
+      </c>
+      <c r="C94">
+        <v>133.30154084505804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B95">
+        <v>483.05833333333339</v>
+      </c>
+      <c r="C95">
+        <v>248.13264611784663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B96">
+        <v>504.29166666666669</v>
+      </c>
+      <c r="C96">
+        <v>135.73149868807579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B97">
+        <v>950.19166666666672</v>
+      </c>
+      <c r="C97">
+        <v>304.09847457051001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B98">
+        <v>1650.8916666666667</v>
+      </c>
+      <c r="C98">
+        <v>559.83667505452991</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B99">
+        <v>1794.2166669999999</v>
+      </c>
+      <c r="C99">
+        <v>563.46401820000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B100">
+        <v>414.05</v>
+      </c>
+      <c r="C100">
+        <v>123.901549</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B101">
+        <v>1518.1833329999999</v>
+      </c>
+      <c r="C101">
+        <v>356.34695770000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B102">
+        <v>1146.5999999999999</v>
+      </c>
+      <c r="C102">
+        <v>750.78676680000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B103">
+        <v>679.46666670000002</v>
+      </c>
+      <c r="C103">
+        <v>412.55006090000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B104">
+        <v>2224.1916670000001</v>
+      </c>
+      <c r="C104">
+        <v>684.85729479999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B105">
+        <v>1942.85</v>
+      </c>
+      <c r="C105">
+        <v>507.6720823</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B106">
+        <v>1072.2833330000001</v>
+      </c>
+      <c r="C106">
+        <v>340.82641860000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44745</v>
+      </c>
+      <c r="B107">
+        <v>318.5</v>
+      </c>
+      <c r="C107">
+        <v>85.857266240000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B108">
+        <v>679.46666670000002</v>
+      </c>
+      <c r="C108">
+        <v>183.8247552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B109">
+        <v>1252.7666670000001</v>
+      </c>
+      <c r="C109">
+        <v>511.82904860000002</v>
       </c>
     </row>
   </sheetData>
